--- a/data/trans_orig/P6706-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>43081</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32470</v>
+        <v>33093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54779</v>
+        <v>55849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3481970840272288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2624331486762638</v>
+        <v>0.2674687390101544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4427421484881789</v>
+        <v>0.4513904958742608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -764,19 +764,19 @@
         <v>33737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24444</v>
+        <v>23858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43533</v>
+        <v>42921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3904421576317841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828983804838796</v>
+        <v>0.2761197823735949</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5038218150485382</v>
+        <v>0.4967311300873711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -785,19 +785,19 @@
         <v>76818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63046</v>
+        <v>62445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91910</v>
+        <v>91609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3655681088768031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3000284539321546</v>
+        <v>0.2971718565618984</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4373918568853633</v>
+        <v>0.435958045595475</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>6787</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2841</v>
+        <v>2744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14927</v>
+        <v>14531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05485490944980037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02295911570136509</v>
+        <v>0.02217566942848401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.120642932795526</v>
+        <v>0.1174465234965189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -835,19 +835,19 @@
         <v>4440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1123</v>
+        <v>1081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10425</v>
+        <v>10184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05138501108277489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01300057245998027</v>
+        <v>0.01251488537734199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1206505820883349</v>
+        <v>0.11786217134649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -856,19 +856,19 @@
         <v>11227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5528</v>
+        <v>5877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20451</v>
+        <v>19804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0534280995139645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02630602103354785</v>
+        <v>0.02796722518010529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09732464773371387</v>
+        <v>0.0942454260719138</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>25265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17254</v>
+        <v>16741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35172</v>
+        <v>35742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.204197710819532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1394570228333954</v>
+        <v>0.1353066313205963</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2842705217277492</v>
+        <v>0.2888811101093723</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -906,19 +906,19 @@
         <v>15609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9148</v>
+        <v>9227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23254</v>
+        <v>23224</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1806527342750135</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1058681701762283</v>
+        <v>0.1067875168412799</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2691268374617747</v>
+        <v>0.2687759874413007</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -927,19 +927,19 @@
         <v>40874</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30997</v>
+        <v>29515</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53797</v>
+        <v>53046</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1945160997406636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1475103761526973</v>
+        <v>0.1404600030503312</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2560164611816035</v>
+        <v>0.2524425989339751</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12946</v>
+        <v>13253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29412</v>
+        <v>29521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1666310199526236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.104636560856323</v>
+        <v>0.1071147641050868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2377222034930327</v>
+        <v>0.2386011365687083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -977,19 +977,19 @@
         <v>11327</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5201</v>
+        <v>6078</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19882</v>
+        <v>20656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1310866263248828</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06019737808476034</v>
+        <v>0.07034470907199306</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2300994495842089</v>
+        <v>0.2390629775127091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -998,19 +998,19 @@
         <v>31943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21847</v>
+        <v>21765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43677</v>
+        <v>43654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1520152910098775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1039685665165614</v>
+        <v>0.1035773389094893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2078546899493932</v>
+        <v>0.2077460756046457</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>27977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18703</v>
+        <v>19216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39252</v>
+        <v>38154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2261192757508152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1511666770884448</v>
+        <v>0.155313977531503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3172470910785831</v>
+        <v>0.3083739842233733</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1048,19 +1048,19 @@
         <v>21293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13770</v>
+        <v>13504</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30878</v>
+        <v>30699</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2464334706855447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1593620105697505</v>
+        <v>0.1562804326919604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3573597082940217</v>
+        <v>0.3552921252927882</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -1069,19 +1069,19 @@
         <v>49270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37124</v>
+        <v>37903</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62714</v>
+        <v>63095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2344724008586913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1766709739041076</v>
+        <v>0.1803760964282747</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2984520323417922</v>
+        <v>0.3002658840364432</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>36212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27095</v>
+        <v>26373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47962</v>
+        <v>49433</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2102397914372344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1573103920434994</v>
+        <v>0.1531198581529111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2784596324841541</v>
+        <v>0.2870034909985748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1194,19 +1194,19 @@
         <v>22405</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15113</v>
+        <v>14343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32141</v>
+        <v>31701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.184232817541223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1242758009083169</v>
+        <v>0.1179434759709206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2642932586613915</v>
+        <v>0.260677975231853</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1215,19 +1215,19 @@
         <v>58616</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45327</v>
+        <v>45457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72671</v>
+        <v>74104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.199476744895648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1542512963470689</v>
+        <v>0.1546954220576205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2473074284138145</v>
+        <v>0.2521829608416341</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>10219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4958</v>
+        <v>4969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18717</v>
+        <v>19659</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05932997994528033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02878594533085993</v>
+        <v>0.02884846014049092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1086678502454923</v>
+        <v>0.1141380076952881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1265,19 +1265,19 @@
         <v>5068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11374</v>
+        <v>11750</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04167520389630645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01618167728080503</v>
+        <v>0.01628317621967367</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09352887671574102</v>
+        <v>0.09661637071480893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1286,19 +1286,19 @@
         <v>15287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8759</v>
+        <v>8290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25741</v>
+        <v>24986</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05202350987859053</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0298066245599568</v>
+        <v>0.02821096041233331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08759746863016837</v>
+        <v>0.0850302487888608</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>20683</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13456</v>
+        <v>13216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30988</v>
+        <v>30864</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1200829218644763</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07812337130289172</v>
+        <v>0.0767327649977269</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1799140146315722</v>
+        <v>0.1791901433275171</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1336,19 +1336,19 @@
         <v>19203</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11474</v>
+        <v>11576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29247</v>
+        <v>28622</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.157907773034185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09434981944725813</v>
+        <v>0.09518957376666594</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2404990812258172</v>
+        <v>0.2353546059186031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -1357,19 +1357,19 @@
         <v>39886</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28948</v>
+        <v>28274</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53027</v>
+        <v>52630</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1357368243598601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09851401758638101</v>
+        <v>0.09621769009527986</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1804549162345802</v>
+        <v>0.1791034758851096</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>20948</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13503</v>
+        <v>13150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32227</v>
+        <v>31912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1216191385375544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07839634962261639</v>
+        <v>0.07634511209611572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1871074933912164</v>
+        <v>0.1852775070595101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1407,19 +1407,19 @@
         <v>9215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4139</v>
+        <v>4229</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16571</v>
+        <v>16613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07577538861846407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03403401830830369</v>
+        <v>0.03477694954984523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1362651299710255</v>
+        <v>0.1366076540656712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1428,19 +1428,19 @@
         <v>30163</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20268</v>
+        <v>19863</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43424</v>
+        <v>42849</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1026465961728431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06897324627974</v>
+        <v>0.06759486804810159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1477760733306287</v>
+        <v>0.1458197216849517</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>84179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70620</v>
+        <v>70765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98234</v>
+        <v>98153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4887281682154546</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4100069281762084</v>
+        <v>0.4108492996437956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.570330045919708</v>
+        <v>0.569862316586446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1478,19 +1478,19 @@
         <v>65720</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53354</v>
+        <v>53815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76826</v>
+        <v>77227</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5404088169098215</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4387299793295468</v>
+        <v>0.4425210147757694</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6317341653759779</v>
+        <v>0.6350348721905418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -1499,19 +1499,19 @@
         <v>149898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132926</v>
+        <v>131322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169923</v>
+        <v>167991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5101163246930582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4523594939506027</v>
+        <v>0.4468998085934611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5782633666176553</v>
+        <v>0.5716899512846009</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>18731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11861</v>
+        <v>11573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27306</v>
+        <v>27434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1343955108283564</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08510435945564702</v>
+        <v>0.08303895106452647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1959183612210499</v>
+        <v>0.1968381191937113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1624,19 +1624,19 @@
         <v>9053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4841</v>
+        <v>4170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16144</v>
+        <v>15751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1113566628156946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05954828353010539</v>
+        <v>0.05128750767935279</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1985705967041374</v>
+        <v>0.1937355198532421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1645,19 +1645,19 @@
         <v>27785</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19049</v>
+        <v>19302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36564</v>
+        <v>38771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1259075276176063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08632327139926568</v>
+        <v>0.08746746316004995</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1656936443243918</v>
+        <v>0.1756908116502877</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>24102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16150</v>
+        <v>16101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34167</v>
+        <v>34054</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1729339476946922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1158719737541036</v>
+        <v>0.11552200076353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2451475729174066</v>
+        <v>0.2443385378032554</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1695,19 +1695,19 @@
         <v>10687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6183</v>
+        <v>5555</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18493</v>
+        <v>17661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1314519956984877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07605506538755107</v>
+        <v>0.06832224027477744</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2274680353417622</v>
+        <v>0.2172353383444602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -1716,19 +1716,19 @@
         <v>34790</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24963</v>
+        <v>25738</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47184</v>
+        <v>47492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1576511474479343</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1131193234490389</v>
+        <v>0.1166337626119082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2138189224878654</v>
+        <v>0.215212162307087</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>32499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23728</v>
+        <v>23332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43225</v>
+        <v>43420</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2331755133788689</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.170248838278441</v>
+        <v>0.1674038633651358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3101338805031465</v>
+        <v>0.3115323480313111</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1766,19 +1766,19 @@
         <v>22485</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14757</v>
+        <v>15060</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31313</v>
+        <v>30903</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2765698870349216</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.181511089211456</v>
+        <v>0.1852335830351318</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3851530477672123</v>
+        <v>0.3801015095768892</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -1787,19 +1787,19 @@
         <v>54984</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42983</v>
+        <v>43744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68832</v>
+        <v>68751</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2491628889121925</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1947797711863072</v>
+        <v>0.1982276936826794</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3119179443669728</v>
+        <v>0.3115506485540815</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>20429</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13092</v>
+        <v>13557</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29312</v>
+        <v>29295</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1465764019145848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09393159037327155</v>
+        <v>0.0972712287159406</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2103105431794051</v>
+        <v>0.2101868817035855</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1837,19 +1837,19 @@
         <v>5946</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2039</v>
+        <v>1989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11709</v>
+        <v>11420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07313598376165802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02507818729486977</v>
+        <v>0.02446239335869182</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1440164117130108</v>
+        <v>0.1404708323955635</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -1858,19 +1858,19 @@
         <v>26375</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17834</v>
+        <v>18138</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37181</v>
+        <v>37627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1195194485491248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0808161477757314</v>
+        <v>0.08219407060497717</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1684866287994279</v>
+        <v>0.1705105268549695</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>43613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32729</v>
+        <v>33089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55170</v>
+        <v>55084</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3129186261834978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2348259293105329</v>
+        <v>0.2374109674996181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3958415562093442</v>
+        <v>0.3952213982312323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1908,19 +1908,19 @@
         <v>33129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24186</v>
+        <v>24934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42273</v>
+        <v>42088</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4074854706892381</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2974825853275646</v>
+        <v>0.3066848731049729</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.519962305020108</v>
+        <v>0.5176831780530846</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>75</v>
@@ -1929,19 +1929,19 @@
         <v>76742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63757</v>
+        <v>64438</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91504</v>
+        <v>92143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.347758987473142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2889203280729379</v>
+        <v>0.2920034201143683</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4146532048623254</v>
+        <v>0.4175493120263317</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>26267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18015</v>
+        <v>17244</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37544</v>
+        <v>37022</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1854663549738917</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.127197870201568</v>
+        <v>0.1217579411659184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2650943670392935</v>
+        <v>0.2614047252686729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>14519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7842</v>
+        <v>8576</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23788</v>
+        <v>23664</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1447122040623321</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07816681819488551</v>
+        <v>0.08547675893920811</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2371064619190853</v>
+        <v>0.2358671992919839</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2075,19 +2075,19 @@
         <v>40785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29649</v>
+        <v>29290</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54122</v>
+        <v>53674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1685674348798292</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1225388466792727</v>
+        <v>0.1210575896017052</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2236894270606057</v>
+        <v>0.2218369243793374</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>17029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10078</v>
+        <v>10241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26701</v>
+        <v>25561</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1202418346707146</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07115827137603718</v>
+        <v>0.07231051775221642</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1885317507752851</v>
+        <v>0.1804842156118641</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2125,19 +2125,19 @@
         <v>11976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5771</v>
+        <v>5872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19681</v>
+        <v>19979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1193704062202821</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05752602842213977</v>
+        <v>0.05852466907356298</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1961710761333084</v>
+        <v>0.1991410048173299</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -2146,19 +2146,19 @@
         <v>29005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20091</v>
+        <v>20133</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>39990</v>
+        <v>41449</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1198804923430702</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08303676412369666</v>
+        <v>0.08320959974745222</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1652799903558733</v>
+        <v>0.1713103670347555</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>30884</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21248</v>
+        <v>21448</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42208</v>
+        <v>43321</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2180692663194738</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.150030989549435</v>
+        <v>0.1514385105714707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2980241610613515</v>
+        <v>0.305880217702201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2196,19 +2196,19 @@
         <v>30181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20500</v>
+        <v>21690</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40284</v>
+        <v>40851</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.300828913148728</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2043302491720347</v>
+        <v>0.2161951231294382</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4015296061518221</v>
+        <v>0.4071793360343467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -2217,19 +2217,19 @@
         <v>61066</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47383</v>
+        <v>47195</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75631</v>
+        <v>75208</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2523859832059421</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1958343572943365</v>
+        <v>0.1950564914072987</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3125835458626876</v>
+        <v>0.3108380477357411</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>25949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17338</v>
+        <v>17192</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35762</v>
+        <v>35311</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1832238395999466</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1224243885779091</v>
+        <v>0.1213933347435435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2525109523098406</v>
+        <v>0.2493259790995894</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2267,19 +2267,19 @@
         <v>22578</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14764</v>
+        <v>15014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32015</v>
+        <v>32975</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2250405193369068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1471606320861292</v>
+        <v>0.1496508829598964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.319101761188583</v>
+        <v>0.3286709385074669</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -2288,19 +2288,19 @@
         <v>48527</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36817</v>
+        <v>36966</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63960</v>
+        <v>62314</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2005633427834973</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1521676732207932</v>
+        <v>0.1527823847662876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.264350060568319</v>
+        <v>0.2575438267867573</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>41496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29035</v>
+        <v>31027</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54538</v>
+        <v>54229</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2929987044359734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2050109933348106</v>
+        <v>0.2190798048784788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3850877977590285</v>
+        <v>0.3829010723801571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2338,19 +2338,19 @@
         <v>21073</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13382</v>
+        <v>13772</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30374</v>
+        <v>30388</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.210047957231751</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1333837921769214</v>
+        <v>0.1372739748944143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3027536792645435</v>
+        <v>0.302889582432934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -2359,19 +2359,19 @@
         <v>62570</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48947</v>
+        <v>49366</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77595</v>
+        <v>78510</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2586027467876612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2022976926318352</v>
+        <v>0.2040293155586904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3207026948494677</v>
+        <v>0.3244843147572764</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>28196</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19708</v>
+        <v>19851</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39022</v>
+        <v>37324</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3468880505468741</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2424696728834155</v>
+        <v>0.244222553135975</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4800818554500459</v>
+        <v>0.4591963345665105</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2484,19 +2484,19 @@
         <v>11440</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5805</v>
+        <v>6308</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17614</v>
+        <v>18473</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2089738871427997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1060404503866175</v>
+        <v>0.1152221268556476</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3217617126705598</v>
+        <v>0.3374567160953023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -2505,19 +2505,19 @@
         <v>39636</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29434</v>
+        <v>28574</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51472</v>
+        <v>50589</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2913848036448669</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2163849196557727</v>
+        <v>0.2100610018132072</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3784020736426738</v>
+        <v>0.371909321864382</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>17374</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10324</v>
+        <v>10173</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25994</v>
+        <v>26052</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2137445240902932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1270119220636631</v>
+        <v>0.1251538734998078</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3198006021691526</v>
+        <v>0.3205149759458658</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2555,19 +2555,19 @@
         <v>10617</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5736</v>
+        <v>5774</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17648</v>
+        <v>17317</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1939420909679488</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1047854231179107</v>
+        <v>0.1054658140309848</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3223784709089274</v>
+        <v>0.31632956899353</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2576,19 +2576,19 @@
         <v>27991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19260</v>
+        <v>19578</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38273</v>
+        <v>38584</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2057750791274165</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1415942487995686</v>
+        <v>0.1439299001231282</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2813679634285814</v>
+        <v>0.2836519238448688</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>21142</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13869</v>
+        <v>13921</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30611</v>
+        <v>29751</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2601011699681109</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1706327026167103</v>
+        <v>0.1712684326018184</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3766031628942578</v>
+        <v>0.3660186920398647</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2626,19 +2626,19 @@
         <v>15736</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9651</v>
+        <v>9436</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23421</v>
+        <v>22834</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2874456729988279</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1763035177588918</v>
+        <v>0.1723624805391313</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4278264906255133</v>
+        <v>0.4171184124486434</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>35</v>
@@ -2647,19 +2647,19 @@
         <v>36877</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27592</v>
+        <v>27090</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47754</v>
+        <v>48487</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2711059041133621</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2028480270641161</v>
+        <v>0.1991512346549865</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3510652675157781</v>
+        <v>0.3564534505302019</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>7932</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3163</v>
+        <v>3207</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15432</v>
+        <v>15695</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09758868777250206</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03890920059736037</v>
+        <v>0.03945652122737781</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1898621890015605</v>
+        <v>0.1930927480875361</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2697,19 +2697,19 @@
         <v>7052</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3013</v>
+        <v>2916</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13229</v>
+        <v>13353</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.128821453848254</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05503191226510241</v>
+        <v>0.05325976007179335</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2416537996412801</v>
+        <v>0.2439127982548165</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -2718,19 +2718,19 @@
         <v>14984</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8118</v>
+        <v>8976</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23671</v>
+        <v>24812</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1101582446921642</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05967683395730289</v>
+        <v>0.06598910418606509</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1740202798354326</v>
+        <v>0.1824048412115034</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>6639</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2447</v>
+        <v>2364</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13783</v>
+        <v>13514</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08167756762221971</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03010842132250481</v>
+        <v>0.02908258653820198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1695704226083995</v>
+        <v>0.1662576138781813</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2768,19 +2768,19 @@
         <v>9898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4142</v>
+        <v>5145</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17262</v>
+        <v>17426</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1808168950421695</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07566242317986074</v>
+        <v>0.09398976399750684</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3153274820535387</v>
+        <v>0.3183183521559745</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -2789,19 +2789,19 @@
         <v>16537</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9400</v>
+        <v>9263</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25660</v>
+        <v>25984</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1215759684221904</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06910470633769072</v>
+        <v>0.06809693022413525</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1886422969339041</v>
+        <v>0.1910213154408586</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>15579</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9413</v>
+        <v>8907</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22858</v>
+        <v>24314</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.132814986493611</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08025387587089582</v>
+        <v>0.07594020914153143</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1948730253150744</v>
+        <v>0.2072893886148482</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2914,19 +2914,19 @@
         <v>7059</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2975</v>
+        <v>2887</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13483</v>
+        <v>12834</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1276741866152867</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05380079449083888</v>
+        <v>0.05222059431401758</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2438505728464954</v>
+        <v>0.2321168782231542</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -2935,19 +2935,19 @@
         <v>22638</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15486</v>
+        <v>15120</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33744</v>
+        <v>32857</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1311680293280691</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08973041539913565</v>
+        <v>0.08760800325411082</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1955193278008537</v>
+        <v>0.1903758638737042</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>11943</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5732</v>
+        <v>5942</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20034</v>
+        <v>20139</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1018196504106637</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04886585009173919</v>
+        <v>0.05065763127100857</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1707987136811443</v>
+        <v>0.1716945806297483</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2985,19 +2985,19 @@
         <v>11080</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4893</v>
+        <v>5810</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17268</v>
+        <v>17698</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2003843939458338</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08848514814135075</v>
+        <v>0.1050739949804396</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3122993250061262</v>
+        <v>0.3200904649735691</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>22</v>
@@ -3006,19 +3006,19 @@
         <v>23023</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15131</v>
+        <v>14826</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>33734</v>
+        <v>33848</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1333968202047084</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08766837974664969</v>
+        <v>0.08590075540960977</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1954568508451685</v>
+        <v>0.1961172431705582</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>28213</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19343</v>
+        <v>18181</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40310</v>
+        <v>38892</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2405252828403453</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1649046648206384</v>
+        <v>0.1550046925742815</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3436586045807596</v>
+        <v>0.3315711515989891</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -3056,19 +3056,19 @@
         <v>7817</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3770</v>
+        <v>3798</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14222</v>
+        <v>14758</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1413853398171263</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06818282820446253</v>
+        <v>0.06869123136604169</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2572223223359524</v>
+        <v>0.2669182952024129</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>33</v>
@@ -3077,19 +3077,19 @@
         <v>36030</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>26105</v>
+        <v>25665</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>50455</v>
+        <v>47956</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2087638364860609</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1512538527238869</v>
+        <v>0.1487062154610938</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2923430902095102</v>
+        <v>0.2778651083136359</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>14691</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7820</v>
+        <v>8103</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23860</v>
+        <v>24307</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1252437879156451</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06667141917548226</v>
+        <v>0.06908078841237417</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2034164846835294</v>
+        <v>0.2072272391197426</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -3127,19 +3127,19 @@
         <v>5838</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1898</v>
+        <v>1990</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12669</v>
+        <v>12181</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1055863524660895</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03432385530237496</v>
+        <v>0.03599886924712769</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2291331340689691</v>
+        <v>0.2203116038440614</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>18</v>
@@ -3148,19 +3148,19 @@
         <v>20529</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12737</v>
+        <v>12720</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>30771</v>
+        <v>31808</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1189461387295078</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07380225401872068</v>
+        <v>0.07370093884219506</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1782878207572971</v>
+        <v>0.1842995151432062</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>46871</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>36440</v>
+        <v>36670</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>57531</v>
+        <v>59308</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3995962923397349</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.310670280910269</v>
+        <v>0.3126252290639914</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4904750943702495</v>
+        <v>0.5056249274392176</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>21</v>
@@ -3198,19 +3198,19 @@
         <v>23497</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16019</v>
+        <v>16491</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>31402</v>
+        <v>31585</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4249697271556638</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2897170067706394</v>
+        <v>0.2982482165530456</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5679342476178922</v>
+        <v>0.5712390493489594</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>64</v>
@@ -3219,19 +3219,19 @@
         <v>70369</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>57833</v>
+        <v>57360</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>84609</v>
+        <v>84991</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4077251752516538</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3350897815043425</v>
+        <v>0.3323497160264808</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4902367928374579</v>
+        <v>0.4924445775067073</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>39843</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29297</v>
+        <v>29048</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53106</v>
+        <v>54505</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1485833271740969</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1092551913617357</v>
+        <v>0.1083255918485779</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1980441303673541</v>
+        <v>0.2032605867442434</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>31</v>
@@ -3344,19 +3344,19 @@
         <v>32501</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>23294</v>
+        <v>22990</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44773</v>
+        <v>45229</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1804805174371144</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.129350647976742</v>
+        <v>0.1276663657038555</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2486257746287047</v>
+        <v>0.2511574898578912</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>69</v>
@@ -3365,19 +3365,19 @@
         <v>72344</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>56177</v>
+        <v>57064</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>89329</v>
+        <v>88980</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1613982946668509</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1253286406701975</v>
+        <v>0.1273078518873244</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1992903877976335</v>
+        <v>0.1985128583599378</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>37983</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28399</v>
+        <v>27441</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>53543</v>
+        <v>51643</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.14164839637205</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1059069923387889</v>
+        <v>0.102334596057863</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1996728495099011</v>
+        <v>0.1925881775303811</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>30</v>
@@ -3415,19 +3415,19 @@
         <v>32695</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>22237</v>
+        <v>22822</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>44517</v>
+        <v>44784</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1815536552454217</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1234817954483168</v>
+        <v>0.1267332637298109</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2472061725065819</v>
+        <v>0.2486882834987644</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>64</v>
@@ -3436,19 +3436,19 @@
         <v>70678</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>54671</v>
+        <v>54545</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>88830</v>
+        <v>87673</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1576806735424033</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1219702556264035</v>
+        <v>0.1216890232348464</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1981781689383585</v>
+        <v>0.195596873592033</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>55163</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>43083</v>
+        <v>43682</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>69280</v>
+        <v>70125</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2057152096853438</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1606653663865372</v>
+        <v>0.1628991127272165</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2583590681010436</v>
+        <v>0.2615125317987433</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>30</v>
@@ -3486,19 +3486,19 @@
         <v>31496</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>22325</v>
+        <v>21767</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>42418</v>
+        <v>43383</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.174899350663501</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1239735066701095</v>
+        <v>0.1208716638750509</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2355492974608973</v>
+        <v>0.2409060068324645</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>86</v>
@@ -3507,19 +3507,19 @@
         <v>86659</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>70515</v>
+        <v>70632</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>103341</v>
+        <v>105055</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1933346762160975</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1573175474475158</v>
+        <v>0.1575772079824242</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2305520315853288</v>
+        <v>0.2343748080534178</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>47881</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>34532</v>
+        <v>36053</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>62334</v>
+        <v>62345</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1785574439824177</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1287783276232544</v>
+        <v>0.1344487945270836</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2324559972581672</v>
+        <v>0.2324973293869889</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>16</v>
@@ -3557,19 +3557,19 @@
         <v>17771</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>10221</v>
+        <v>10709</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>27901</v>
+        <v>28052</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09868416372061667</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05675939197655118</v>
+        <v>0.05946905994066758</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.154933188618229</v>
+        <v>0.1557711160173838</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>59</v>
@@ -3578,19 +3578,19 @@
         <v>65652</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>50772</v>
+        <v>50664</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>83092</v>
+        <v>81089</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1464676742674541</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1132705991871329</v>
+        <v>0.1130308171557811</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1853756507794899</v>
+        <v>0.18090815749003</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>87283</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>72067</v>
+        <v>71684</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>104700</v>
+        <v>104517</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3254956227860915</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2687540413617555</v>
+        <v>0.2673251433739169</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.390448542460172</v>
+        <v>0.3897662206732332</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>62</v>
@@ -3628,19 +3628,19 @@
         <v>65619</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>52352</v>
+        <v>53546</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>80629</v>
+        <v>79895</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3643823129333463</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2907099713535337</v>
+        <v>0.297340820598096</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4477368213246516</v>
+        <v>0.4436598702749854</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>141</v>
@@ -3649,19 +3649,19 @@
         <v>152901</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>131309</v>
+        <v>131696</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>174713</v>
+        <v>174014</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3411186813071941</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2929465460835856</v>
+        <v>0.2938090830189342</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.389779480613177</v>
+        <v>0.38822018494391</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>48553</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>36231</v>
+        <v>36288</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63529</v>
+        <v>63364</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1347836517877049</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1005771621196725</v>
+        <v>0.1007345901160398</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1763555052493659</v>
+        <v>0.175896884377361</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>19</v>
@@ -3774,19 +3774,19 @@
         <v>21987</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>13927</v>
+        <v>13685</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>33139</v>
+        <v>32243</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08569691199868046</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05428366595505902</v>
+        <v>0.05334134264127871</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.129167215292132</v>
+        <v>0.1256716410632837</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>63</v>
@@ -3795,19 +3795,19 @@
         <v>70540</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>56251</v>
+        <v>55852</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>89719</v>
+        <v>88644</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1143654984586243</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09119907368192232</v>
+        <v>0.09055147143037004</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1454597930043217</v>
+        <v>0.1437173845224809</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>35249</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>24105</v>
+        <v>25611</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>47297</v>
+        <v>47548</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09784958482665868</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06691534667038762</v>
+        <v>0.07109573121394333</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1312960186878989</v>
+        <v>0.1319919231747378</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>23</v>
@@ -3845,19 +3845,19 @@
         <v>25289</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16849</v>
+        <v>16739</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>37133</v>
+        <v>36520</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.09857010295028379</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0656713068285476</v>
+        <v>0.06524460015674312</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1447329578887273</v>
+        <v>0.1423435953576275</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>57</v>
@@ -3866,19 +3866,19 @@
         <v>60538</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>47017</v>
+        <v>47153</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>77669</v>
+        <v>78861</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09814929203043285</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07622838208254673</v>
+        <v>0.0764482989882987</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1259231501921707</v>
+        <v>0.1278560212096547</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>64922</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>52129</v>
+        <v>51170</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>82984</v>
+        <v>81643</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1802214613459742</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1447108724997441</v>
+        <v>0.1420470936277664</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.230362778475664</v>
+        <v>0.2266406584152477</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>46</v>
@@ -3916,19 +3916,19 @@
         <v>51804</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>39202</v>
+        <v>39346</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>66644</v>
+        <v>66910</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2019154064099715</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1527963693091121</v>
+        <v>0.1533583276929163</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.259758214685973</v>
+        <v>0.2607955113325081</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>107</v>
@@ -3937,19 +3937,19 @@
         <v>116726</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>99081</v>
+        <v>98415</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>139627</v>
+        <v>138468</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1892452893397085</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1606379761270142</v>
+        <v>0.1595588198323316</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2263753836748809</v>
+        <v>0.2244964365943396</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>141441</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>122854</v>
+        <v>120951</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>161001</v>
+        <v>161493</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3926386013836217</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.341042678838243</v>
+        <v>0.3357585873693</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4469358640760071</v>
+        <v>0.4483018572942304</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>90</v>
@@ -3987,19 +3987,19 @@
         <v>97917</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>81641</v>
+        <v>81912</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>114110</v>
+        <v>115799</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3816520213164056</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3182128725209851</v>
+        <v>0.3192662995827221</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4447674595454623</v>
+        <v>0.4513471519196708</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>222</v>
@@ -4008,19 +4008,19 @@
         <v>239359</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>213679</v>
+        <v>213947</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>264664</v>
+        <v>261986</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3880686161424182</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3464337434903224</v>
+        <v>0.3468688258713534</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4290950393102837</v>
+        <v>0.4247538164175345</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>70068</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>56483</v>
+        <v>55424</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>88589</v>
+        <v>88198</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1945067006560405</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.156795742413236</v>
+        <v>0.1538558050266368</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2459219353058546</v>
+        <v>0.2448362248916037</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>54</v>
@@ -4058,19 +4058,19 @@
         <v>59565</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>46196</v>
+        <v>45901</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>75406</v>
+        <v>74877</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2321655573246587</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1800584606311211</v>
+        <v>0.1789066408950563</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2939098808228022</v>
+        <v>0.2918489174790199</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>118</v>
@@ -4079,19 +4079,19 @@
         <v>129633</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>111012</v>
+        <v>109104</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>154136</v>
+        <v>153394</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2101713040288162</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1799822014444594</v>
+        <v>0.1768882510469316</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2498976775682006</v>
+        <v>0.2486946569179043</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>256462</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>226266</v>
+        <v>226413</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>288483</v>
+        <v>285437</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1826742982235272</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1611659178069386</v>
+        <v>0.1612708571650379</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2054827520413688</v>
+        <v>0.2033128077791468</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>140</v>
@@ -4204,19 +4204,19 @@
         <v>152700</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>131275</v>
+        <v>131550</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>178124</v>
+        <v>177082</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1630847326185589</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1402024008248931</v>
+        <v>0.1404960959719152</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.190237975551278</v>
+        <v>0.189124243977544</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>383</v>
@@ -4225,19 +4225,19 @@
         <v>409162</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>371799</v>
+        <v>367875</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>449832</v>
+        <v>450266</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1748366080599253</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1588713714779353</v>
+        <v>0.1571946748030418</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1922151209990572</v>
+        <v>0.1924002741204243</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>160687</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>135442</v>
+        <v>137690</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>186612</v>
+        <v>186671</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1144548078584467</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09647319427847319</v>
+        <v>0.09807503722076667</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1329214626029331</v>
+        <v>0.1329634959496605</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>105</v>
@@ -4275,19 +4275,19 @@
         <v>111852</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>92261</v>
+        <v>93180</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>133691</v>
+        <v>133085</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1194586343393979</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09853530329562694</v>
+        <v>0.09951690439007294</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1427829118419433</v>
+        <v>0.1421355150078922</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>255</v>
@@ -4296,19 +4296,19 @@
         <v>272539</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>242528</v>
+        <v>241368</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>308103</v>
+        <v>306399</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1164568145583898</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1036330553400105</v>
+        <v>0.1031375319658056</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1316537978122559</v>
+        <v>0.130925594353183</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>278770</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>250505</v>
+        <v>249252</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>313171</v>
+        <v>310406</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1985637834248853</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.178431338502697</v>
+        <v>0.1775385628911048</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2230671051567189</v>
+        <v>0.2210978872676871</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>179</v>
@@ -4346,19 +4346,19 @@
         <v>194333</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>169049</v>
+        <v>171241</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>224547</v>
+        <v>219994</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2075485363797808</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1805449671276238</v>
+        <v>0.1828864897772365</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2398174587200165</v>
+        <v>0.2349545663262821</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>447</v>
@@ -4367,19 +4367,19 @@
         <v>473102</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>434906</v>
+        <v>433906</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>510188</v>
+        <v>514804</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2021585394943674</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1858369474374981</v>
+        <v>0.185409777497585</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2180052835477455</v>
+        <v>0.2199778469245933</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>299887</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>269665</v>
+        <v>271606</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>332889</v>
+        <v>332479</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2136055324492827</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1920787393872313</v>
+        <v>0.1934613067061511</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2371120588999847</v>
+        <v>0.2368201686222956</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>165</v>
@@ -4417,19 +4417,19 @@
         <v>177644</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>154166</v>
+        <v>153307</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>202933</v>
+        <v>201845</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1897252844238993</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1646499362652648</v>
+        <v>0.1637329767814114</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2167340705990429</v>
+        <v>0.2155722479910865</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>447</v>
@@ -4438,19 +4438,19 @@
         <v>477532</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>440960</v>
+        <v>437611</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>522789</v>
+        <v>517638</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2040511610646793</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1884239888195318</v>
+        <v>0.1869930393178585</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.223389724781709</v>
+        <v>0.2211888506666732</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>408125</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>374880</v>
+        <v>372472</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>446002</v>
+        <v>444088</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2907015780438581</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2670217198093948</v>
+        <v>0.2653064073221189</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3176808816084875</v>
+        <v>0.3163178545979031</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>275</v>
@@ -4488,19 +4488,19 @@
         <v>299795</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>268386</v>
+        <v>272133</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>329972</v>
+        <v>332297</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3201828122383631</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2866381756442651</v>
+        <v>0.2906393515718308</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3524118248820395</v>
+        <v>0.3548956914260733</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>650</v>
@@ -4509,19 +4509,19 @@
         <v>707920</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>661444</v>
+        <v>660619</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>754321</v>
+        <v>762008</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3024968768226382</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2826376541259176</v>
+        <v>0.2822852353748734</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3223244637740394</v>
+        <v>0.3256090965279333</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>44514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34478</v>
+        <v>33558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55944</v>
+        <v>56714</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3345636790385652</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2591346923379262</v>
+        <v>0.2522196671168077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4204700123932539</v>
+        <v>0.426260524748816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4878,19 +4878,19 @@
         <v>17143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10067</v>
+        <v>9623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25875</v>
+        <v>25430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1713129093969205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1005959889726408</v>
+        <v>0.09615798149541645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2585667885399558</v>
+        <v>0.2541204483462742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -4899,19 +4899,19 @@
         <v>61657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48435</v>
+        <v>48125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76739</v>
+        <v>76850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2644863737405646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2077665377821871</v>
+        <v>0.2064407651471044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3291816948695626</v>
+        <v>0.3296597728765362</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>23852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15068</v>
+        <v>15730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33900</v>
+        <v>34695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1792686324490605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1132531335634236</v>
+        <v>0.1182225397148145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2547884955815202</v>
+        <v>0.2607637173083354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4949,19 +4949,19 @@
         <v>14857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8744</v>
+        <v>7720</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23115</v>
+        <v>23372</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1484627924627866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08737906020613689</v>
+        <v>0.07714701646792911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2309922418767663</v>
+        <v>0.2335539728261279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -4970,19 +4970,19 @@
         <v>38708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28156</v>
+        <v>27281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51782</v>
+        <v>51024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1660448647546216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1207810516427486</v>
+        <v>0.1170244873006066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2221244185343074</v>
+        <v>0.2188760292641719</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>34612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24684</v>
+        <v>24887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45438</v>
+        <v>45465</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2601403659600767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1855222371832897</v>
+        <v>0.1870461528864265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3415073471398979</v>
+        <v>0.3417110639356751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -5020,19 +5020,19 @@
         <v>30400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21251</v>
+        <v>21394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40378</v>
+        <v>40569</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3037853715785076</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2123567201347169</v>
+        <v>0.2137883224363129</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4034956751275131</v>
+        <v>0.4054079588530202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -5041,19 +5041,19 @@
         <v>65011</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52108</v>
+        <v>52695</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>80502</v>
+        <v>83027</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2788754959087414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2235247791675592</v>
+        <v>0.2260432122018657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3453255757031002</v>
+        <v>0.3561554932051683</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>22505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14247</v>
+        <v>15103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33816</v>
+        <v>34300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1691449838589469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1070779523246834</v>
+        <v>0.1135103081820483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2541575658362915</v>
+        <v>0.2577969285901371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -5091,19 +5091,19 @@
         <v>17020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9884</v>
+        <v>10330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25322</v>
+        <v>26753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1700854124651246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09877247908804229</v>
+        <v>0.1032287255695524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.253045716552336</v>
+        <v>0.2673468692947538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -5112,19 +5112,19 @@
         <v>39525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28377</v>
+        <v>28630</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52431</v>
+        <v>54264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1695486738549619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1217269763236357</v>
+        <v>0.1228135188245481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2249101201159358</v>
+        <v>0.2327712607340838</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>7568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3113</v>
+        <v>3366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14508</v>
+        <v>15353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05688233869335075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02339894022732417</v>
+        <v>0.02529662273706441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1090436252743861</v>
+        <v>0.1153911914137401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -5162,19 +5162,19 @@
         <v>20650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13705</v>
+        <v>13102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29809</v>
+        <v>29389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2063535140966608</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1369547289551973</v>
+        <v>0.1309329592047275</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2978802889577258</v>
+        <v>0.2936811668868397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -5183,19 +5183,19 @@
         <v>28218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19078</v>
+        <v>19193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38477</v>
+        <v>40994</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1210445917411106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08183678389918031</v>
+        <v>0.08232943045815844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1650520945730563</v>
+        <v>0.1758489724396955</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>51926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39942</v>
+        <v>39264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64422</v>
+        <v>64398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3049160600825013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2345435289226951</v>
+        <v>0.2305613453943955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.378291863550742</v>
+        <v>0.3781517691604354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -5308,19 +5308,19 @@
         <v>21269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14350</v>
+        <v>13854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30191</v>
+        <v>30186</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1870994663847284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1262341549239117</v>
+        <v>0.1218707887887903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2655792347310854</v>
+        <v>0.2655318770707124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5329,19 +5329,19 @@
         <v>73196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59418</v>
+        <v>59671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88228</v>
+        <v>90041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2577523316690402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2092365836175741</v>
+        <v>0.2101275521026537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3106884398181776</v>
+        <v>0.3170720772210634</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>15427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9362</v>
+        <v>8792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26074</v>
+        <v>23732</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09058623485529435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05497714380271968</v>
+        <v>0.05162680342036783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1531109405079637</v>
+        <v>0.1393577047623293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -5379,19 +5379,19 @@
         <v>9651</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4845</v>
+        <v>4858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17452</v>
+        <v>17409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08489223435916171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04261603084167691</v>
+        <v>0.04273145488808144</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1535182891790426</v>
+        <v>0.1531405407364178</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -5400,19 +5400,19 @@
         <v>25077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16043</v>
+        <v>16265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35702</v>
+        <v>36066</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08830684207574577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05649325084682038</v>
+        <v>0.05727622903626693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.125723199136812</v>
+        <v>0.1270046632611261</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>39395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29453</v>
+        <v>29164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51968</v>
+        <v>51801</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2313336968224019</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1729514898399675</v>
+        <v>0.1712551146997221</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3051587995333101</v>
+        <v>0.3041797666246637</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -5450,19 +5450,19 @@
         <v>17237</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10667</v>
+        <v>10975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25203</v>
+        <v>26364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1516292489424394</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09383682124242555</v>
+        <v>0.09653986645011334</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.221701952885491</v>
+        <v>0.231912868105797</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -5471,19 +5471,19 @@
         <v>56633</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43752</v>
+        <v>44259</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70554</v>
+        <v>72818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1994268251740962</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1540674935601276</v>
+        <v>0.1558539791090621</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2484479906704561</v>
+        <v>0.2564224271780469</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>29252</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20088</v>
+        <v>19764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40534</v>
+        <v>40667</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.171767825909956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1179579539963564</v>
+        <v>0.1160567276347505</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2380203716994295</v>
+        <v>0.2387986646436109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5521,19 +5521,19 @@
         <v>17319</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10327</v>
+        <v>10410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27143</v>
+        <v>26414</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1523454691592239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09084232262161816</v>
+        <v>0.0915701469060563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2387625749001187</v>
+        <v>0.2323556054133745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -5542,19 +5542,19 @@
         <v>46570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34866</v>
+        <v>35443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59798</v>
+        <v>60076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1639927686774348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1227784865269439</v>
+        <v>0.1248089274895895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2105735321852983</v>
+        <v>0.2115511979696165</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>34297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24189</v>
+        <v>24240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46292</v>
+        <v>46732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2013961823298464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1420403622980616</v>
+        <v>0.1423385200903962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2718293510472085</v>
+        <v>0.2744163126820243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -5592,19 +5592,19 @@
         <v>48204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37019</v>
+        <v>38300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58290</v>
+        <v>59659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4240335811544467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3256464429871136</v>
+        <v>0.3369114269841494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5127524920639225</v>
+        <v>0.5247990097047063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -5613,19 +5613,19 @@
         <v>82501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68918</v>
+        <v>66990</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100508</v>
+        <v>98965</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.290521232403683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2426900933925573</v>
+        <v>0.2358993025049576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.353931551934763</v>
+        <v>0.3484955434603504</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>24695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17448</v>
+        <v>17301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34716</v>
+        <v>34290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.196632956773855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1389327350463462</v>
+        <v>0.1377613718535435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2764265532667282</v>
+        <v>0.27303652734037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5738,19 +5738,19 @@
         <v>14394</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8281</v>
+        <v>8239</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22010</v>
+        <v>21937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1706813130612097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09819060753434575</v>
+        <v>0.0976913166591241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609852798038037</v>
+        <v>0.2601203322045604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -5759,19 +5759,19 @@
         <v>39089</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30090</v>
+        <v>28765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50936</v>
+        <v>50768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1862072459924138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433370919186897</v>
+        <v>0.1370252789799298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2426445361064744</v>
+        <v>0.2418416449736675</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>17433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10461</v>
+        <v>10864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25710</v>
+        <v>25698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1388066133145021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08329929072782589</v>
+        <v>0.08650818409521299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2047135735503456</v>
+        <v>0.2046175975436825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -5809,19 +5809,19 @@
         <v>13992</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8081</v>
+        <v>8025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21971</v>
+        <v>21795</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1659103147591906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09582759662057656</v>
+        <v>0.09515698229437235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2605293089369294</v>
+        <v>0.2584456129650841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -5830,19 +5830,19 @@
         <v>31424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22658</v>
+        <v>22116</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43320</v>
+        <v>41641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1496951472161587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1079349465363367</v>
+        <v>0.1053529061696155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2063634174674902</v>
+        <v>0.1983633097115463</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>29287</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21294</v>
+        <v>20641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39641</v>
+        <v>39762</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2331965681867683</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1695535375438272</v>
+        <v>0.1643517037640244</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3156444214025786</v>
+        <v>0.3166044965458562</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -5880,19 +5880,19 @@
         <v>24061</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16539</v>
+        <v>16285</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32461</v>
+        <v>32580</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2853037820062351</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1961165632526173</v>
+        <v>0.1931019116155877</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3849152757937318</v>
+        <v>0.3863292576536292</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -5901,19 +5901,19 @@
         <v>53347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42163</v>
+        <v>42485</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66085</v>
+        <v>65529</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2541299143333082</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2008502171353582</v>
+        <v>0.2023861077843678</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3148060829539285</v>
+        <v>0.3121596743237662</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>37648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28155</v>
+        <v>28904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47250</v>
+        <v>48025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2997684467200528</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2241855435795547</v>
+        <v>0.2301492401589901</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3762298603727747</v>
+        <v>0.3823986690695174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -5951,19 +5951,19 @@
         <v>16165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9853</v>
+        <v>10572</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24532</v>
+        <v>24533</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1916779886632756</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1168368950959412</v>
+        <v>0.1253551949073745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2908931844454527</v>
+        <v>0.2909097629564261</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -5972,19 +5972,19 @@
         <v>53812</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41941</v>
+        <v>41682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66614</v>
+        <v>66665</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2563446132853962</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1997944167716794</v>
+        <v>0.1985596864889076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.317325248846075</v>
+        <v>0.3175709368790525</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>16527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10140</v>
+        <v>10373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24837</v>
+        <v>25187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1315954150048218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0807405343746415</v>
+        <v>0.08259802906325955</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1977628037676739</v>
+        <v>0.2005543879612475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -6022,19 +6022,19 @@
         <v>15722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9475</v>
+        <v>9088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23412</v>
+        <v>23761</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.186426601510089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1123522288357824</v>
+        <v>0.1077583925668445</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2776111580237434</v>
+        <v>0.2817550572673791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -6043,19 +6043,19 @@
         <v>32249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22979</v>
+        <v>22207</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43931</v>
+        <v>43138</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1536230791727231</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1094643963181081</v>
+        <v>0.105787572489291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2092713731399385</v>
+        <v>0.2054976207074675</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>41680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31178</v>
+        <v>31424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52613</v>
+        <v>52098</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.371544723375711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2779274799189954</v>
+        <v>0.2801204025472934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4690030552425098</v>
+        <v>0.4644153041235735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -6168,19 +6168,19 @@
         <v>23671</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15698</v>
+        <v>16002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32853</v>
+        <v>32609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2891658044045413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1917637521087454</v>
+        <v>0.1954769730273277</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4013381859334204</v>
+        <v>0.398350005013764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -6189,19 +6189,19 @@
         <v>65351</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52123</v>
+        <v>51932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79088</v>
+        <v>79063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3367917040949618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2686213739208883</v>
+        <v>0.2676388702644036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4075868883870467</v>
+        <v>0.4074573739207048</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>12514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6485</v>
+        <v>6832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21864</v>
+        <v>20549</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1115566512185557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05780879244901881</v>
+        <v>0.06090369199273343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1948968174954537</v>
+        <v>0.1831772937748103</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6239,19 +6239,19 @@
         <v>5668</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2635</v>
+        <v>2598</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11431</v>
+        <v>11680</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06924598664753473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03219325208215815</v>
+        <v>0.03173866989810575</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1396425844266444</v>
+        <v>0.1426853272812784</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -6260,19 +6260,19 @@
         <v>18183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10838</v>
+        <v>11198</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27759</v>
+        <v>27879</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09370714117421282</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05585224959435908</v>
+        <v>0.05771137423697435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1430567800326044</v>
+        <v>0.1436759912015729</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>10094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5131</v>
+        <v>5027</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18673</v>
+        <v>18758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08997595815123764</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04573966090885539</v>
+        <v>0.04481486562526073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1664574796720711</v>
+        <v>0.1672124347151271</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -6310,19 +6310,19 @@
         <v>11933</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6156</v>
+        <v>6359</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18532</v>
+        <v>19952</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1457709503525358</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07520797901976359</v>
+        <v>0.07767839724664863</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2263904963254882</v>
+        <v>0.2437369997774778</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -6331,19 +6331,19 @@
         <v>22026</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14007</v>
+        <v>14472</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31798</v>
+        <v>33087</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1135140728043272</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07218497718824177</v>
+        <v>0.0745853565737223</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1638726206346006</v>
+        <v>0.1705154179151422</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>14563</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8452</v>
+        <v>8639</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23256</v>
+        <v>24137</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1298211752647593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07533998419467207</v>
+        <v>0.07700572873737881</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2073139054979534</v>
+        <v>0.2151593960704137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6381,19 +6381,19 @@
         <v>15286</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9225</v>
+        <v>8569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23522</v>
+        <v>23962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1867316661093389</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.112698889991316</v>
+        <v>0.1046803541205736</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2873529773114475</v>
+        <v>0.292727646388068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -6402,19 +6402,19 @@
         <v>29849</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20356</v>
+        <v>20996</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41581</v>
+        <v>42354</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1538298829572061</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1049061728095806</v>
+        <v>0.1082031479049916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2142903911946787</v>
+        <v>0.2182754793416217</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>33329</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23823</v>
+        <v>23637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43955</v>
+        <v>43507</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2971014919897364</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2123676630386929</v>
+        <v>0.2107071873298536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3918223030122152</v>
+        <v>0.3878283092727591</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -6452,19 +6452,19 @@
         <v>25301</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17811</v>
+        <v>17115</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34350</v>
+        <v>33790</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3090855924860492</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2175867718519084</v>
+        <v>0.2090752842260214</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4196219629999141</v>
+        <v>0.4127885815454792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -6473,19 +6473,19 @@
         <v>58630</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>45120</v>
+        <v>45547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71754</v>
+        <v>73352</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3021571989692921</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2325327912760548</v>
+        <v>0.2347308179300313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3697903900702927</v>
+        <v>0.3780253213730169</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>13148</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7457</v>
+        <v>7583</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19926</v>
+        <v>20875</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1624638602202571</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09213986275848496</v>
+        <v>0.0937028870729729</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2462115854419996</v>
+        <v>0.257941255145927</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -6598,19 +6598,19 @@
         <v>8148</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3771</v>
+        <v>3864</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15318</v>
+        <v>14404</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1470286406271228</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06804994664867146</v>
+        <v>0.0697188696196082</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2764159675211578</v>
+        <v>0.2599110217685318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -6619,19 +6619,19 @@
         <v>21296</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13765</v>
+        <v>13744</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31019</v>
+        <v>30006</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1561902573349779</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1009553103332697</v>
+        <v>0.1007997215539136</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2275005666901353</v>
+        <v>0.2200686115416457</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>22254</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14706</v>
+        <v>15065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31326</v>
+        <v>30816</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2749741513520744</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1817080904247736</v>
+        <v>0.186144288010028</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3870697996371842</v>
+        <v>0.3807782374557527</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -6669,19 +6669,19 @@
         <v>13928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8394</v>
+        <v>8360</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20527</v>
+        <v>20634</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2513288918535681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1514685077053906</v>
+        <v>0.1508455133359778</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3703952065844645</v>
+        <v>0.372333746628116</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -6690,19 +6690,19 @@
         <v>36182</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26908</v>
+        <v>26834</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47756</v>
+        <v>47763</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2653636001501345</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1973457247021188</v>
+        <v>0.1968050014865573</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3502539101201642</v>
+        <v>0.3503040065863051</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>14490</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8558</v>
+        <v>8268</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21959</v>
+        <v>21948</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1790382372290928</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1057420628861409</v>
+        <v>0.102158927083586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2713278955775871</v>
+        <v>0.2711974825674597</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -6740,19 +6740,19 @@
         <v>13299</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7729</v>
+        <v>7810</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20170</v>
+        <v>20424</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2399756785219586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1394728242054027</v>
+        <v>0.1409363842673208</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3639599390965812</v>
+        <v>0.36854809408551</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -6761,19 +6761,19 @@
         <v>27789</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19698</v>
+        <v>19190</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37973</v>
+        <v>37556</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2038060939615297</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1444657153012051</v>
+        <v>0.1407392258066568</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.278499730142538</v>
+        <v>0.2754457111586764</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>19904</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12523</v>
+        <v>13810</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29181</v>
+        <v>29059</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2459412323943182</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1547417271380461</v>
+        <v>0.1706421058372013</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3605691708313389</v>
+        <v>0.3590600498783751</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -6811,19 +6811,19 @@
         <v>9760</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5089</v>
+        <v>5208</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15410</v>
+        <v>15866</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1761193710228935</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09182194922594727</v>
+        <v>0.09397853621323135</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2780604115564054</v>
+        <v>0.2862985174632579</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -6832,19 +6832,19 @@
         <v>29664</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>21122</v>
+        <v>21100</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40294</v>
+        <v>39017</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2175623273640215</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1549150155223413</v>
+        <v>0.1547546359184704</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2955201987259053</v>
+        <v>0.2861560635108157</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>11135</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5806</v>
+        <v>5609</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19594</v>
+        <v>19293</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1375825188042575</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0717463416304782</v>
+        <v>0.069302322726912</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2421150968451123</v>
+        <v>0.2383890396328989</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -6882,19 +6882,19 @@
         <v>10283</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5561</v>
+        <v>5244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16935</v>
+        <v>16615</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.185547417974457</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1003390560712589</v>
+        <v>0.09462327092085396</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3055845764615053</v>
+        <v>0.2998125364253918</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -6903,19 +6903,19 @@
         <v>21417</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13534</v>
+        <v>13763</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30227</v>
+        <v>31663</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1570777211893364</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09926317287821186</v>
+        <v>0.1009394758197716</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2216896497159836</v>
+        <v>0.2322244467734086</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>10760</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5491</v>
+        <v>5761</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18523</v>
+        <v>19140</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1000868675698741</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05107619605599807</v>
+        <v>0.05358639148682231</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1723067661074414</v>
+        <v>0.1780471755033128</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -7028,19 +7028,19 @@
         <v>5977</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2101</v>
+        <v>2358</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12352</v>
+        <v>11851</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0791000893504773</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02780472687368747</v>
+        <v>0.03120559453661555</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1634505694743838</v>
+        <v>0.1568203799615226</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -7049,19 +7049,19 @@
         <v>16737</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10147</v>
+        <v>10030</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25086</v>
+        <v>27436</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09142389244764124</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05542555723470297</v>
+        <v>0.05478805171286204</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1370280215504391</v>
+        <v>0.1498663870906538</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>28711</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20198</v>
+        <v>20319</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37685</v>
+        <v>38683</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2670760225752066</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1878828667374904</v>
+        <v>0.1890086872722774</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3505509538981763</v>
+        <v>0.3598377983994378</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -7099,19 +7099,19 @@
         <v>10857</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5551</v>
+        <v>5493</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18643</v>
+        <v>17645</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1436756837909014</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07345599831600301</v>
+        <v>0.07268697214058302</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2467113414287758</v>
+        <v>0.2334955419276043</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>38</v>
@@ -7120,19 +7120,19 @@
         <v>39569</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>29242</v>
+        <v>29201</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>51340</v>
+        <v>51000</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2161385202207234</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1597329926550908</v>
+        <v>0.1595050580814945</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2804352168767977</v>
+        <v>0.2785817373482718</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>33995</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25059</v>
+        <v>24930</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44329</v>
+        <v>44769</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3162276400489716</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.233104420621704</v>
+        <v>0.2318993973202812</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4123519411451572</v>
+        <v>0.4164503117672533</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>24</v>
@@ -7170,19 +7170,19 @@
         <v>23652</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>16083</v>
+        <v>17031</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32016</v>
+        <v>32424</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3129863802269314</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2128343194906983</v>
+        <v>0.2253747896250858</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4236690741123419</v>
+        <v>0.4290639826167177</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>57</v>
@@ -7191,19 +7191,19 @@
         <v>57647</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45837</v>
+        <v>46549</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>71356</v>
+        <v>70545</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3148897046636786</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2503790445357172</v>
+        <v>0.2542697680329494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3897698514687337</v>
+        <v>0.3853431257289068</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>24217</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15734</v>
+        <v>16619</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32963</v>
+        <v>33923</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2252730768129431</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1463646924350767</v>
+        <v>0.1545965146741274</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3066238571450011</v>
+        <v>0.3155606708392213</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -7241,19 +7241,19 @@
         <v>18006</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10963</v>
+        <v>11241</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25386</v>
+        <v>26007</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2382799765779079</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1450730110475812</v>
+        <v>0.1487543073393384</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3359343399611732</v>
+        <v>0.3441493820080604</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -7262,19 +7262,19 @@
         <v>42224</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>31598</v>
+        <v>31757</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54243</v>
+        <v>55777</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2306420976270633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.172597171193623</v>
+        <v>0.173468413013972</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2962965002385276</v>
+        <v>0.3046714901581516</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>9819</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4710</v>
+        <v>4904</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18003</v>
+        <v>17387</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09133639299300461</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04381200973479332</v>
+        <v>0.04561935427802716</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.167464912627935</v>
+        <v>0.1617399613574052</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>17</v>
@@ -7312,19 +7312,19 @@
         <v>17075</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>11039</v>
+        <v>10537</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>25124</v>
+        <v>24787</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.225957870053782</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1460784983786971</v>
+        <v>0.1394378170181469</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3324712978672901</v>
+        <v>0.3280087992272201</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>26</v>
@@ -7333,19 +7333,19 @@
         <v>26894</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18732</v>
+        <v>17434</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>38112</v>
+        <v>37728</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1469057850408934</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1023192454734917</v>
+        <v>0.09522983229762945</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2081814215812809</v>
+        <v>0.2060827714906513</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>90477</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>73064</v>
+        <v>72664</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>109621</v>
+        <v>108016</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2521136950742318</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2035925382211436</v>
+        <v>0.2024763143247112</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3054586028512596</v>
+        <v>0.3009851903809139</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>53</v>
@@ -7458,19 +7458,19 @@
         <v>55674</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>44044</v>
+        <v>43033</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>72519</v>
+        <v>69939</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1961416782959947</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1551674946830235</v>
+        <v>0.1516058246270142</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2554866882271257</v>
+        <v>0.2463963730568673</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>131</v>
@@ -7479,19 +7479,19 @@
         <v>146151</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>125542</v>
+        <v>125576</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>168992</v>
+        <v>171067</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2273946737983648</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1953294948495053</v>
+        <v>0.1953825359041363</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2629326063695834</v>
+        <v>0.2661602163965909</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>68572</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>54397</v>
+        <v>54709</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>84287</v>
+        <v>85028</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1910740325418831</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1515763277540908</v>
+        <v>0.1524464698355794</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2348636591195948</v>
+        <v>0.2369301965745067</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>61</v>
@@ -7529,19 +7529,19 @@
         <v>63778</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>50227</v>
+        <v>50842</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>78023</v>
+        <v>78485</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2246910901580895</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1769510364581439</v>
+        <v>0.1791169083949077</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2748763171882115</v>
+        <v>0.2765058549127911</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>123</v>
@@ -7550,19 +7550,19 @@
         <v>132349</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>109919</v>
+        <v>111868</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>152404</v>
+        <v>155293</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2059203934607584</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1710218574937097</v>
+        <v>0.1740538541935904</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2371236497018843</v>
+        <v>0.2416185685788066</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>93869</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>77588</v>
+        <v>77299</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>113079</v>
+        <v>112902</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.261565159251618</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2161968385560538</v>
+        <v>0.215391916937163</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3150926970176172</v>
+        <v>0.3145990351164518</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>69</v>
@@ -7600,19 +7600,19 @@
         <v>70998</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>55244</v>
+        <v>57796</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>86380</v>
+        <v>86032</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2501296051491974</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1946265716120091</v>
+        <v>0.2036179945600726</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3043197996968011</v>
+        <v>0.3030934099407797</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>148</v>
@@ -7621,19 +7621,19 @@
         <v>164867</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>143839</v>
+        <v>143429</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>185490</v>
+        <v>188396</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2565148551634335</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2237968415860235</v>
+        <v>0.2231593693699169</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2886018851165938</v>
+        <v>0.2931228045984358</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>50547</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>37972</v>
+        <v>38137</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67938</v>
+        <v>66067</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1408495304720755</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1058077414159812</v>
+        <v>0.1062678738160618</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1893095488485385</v>
+        <v>0.184095964236776</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>39</v>
@@ -7671,19 +7671,19 @@
         <v>41244</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>29044</v>
+        <v>29740</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>53803</v>
+        <v>55147</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1453057332493959</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1023220662458094</v>
+        <v>0.1047744069847657</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1895514427562851</v>
+        <v>0.1942846490987061</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>83</v>
@@ -7692,19 +7692,19 @@
         <v>91792</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>74756</v>
+        <v>73614</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>112011</v>
+        <v>110071</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1428175312267846</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1163117578162039</v>
+        <v>0.1145356355880485</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1742769542609524</v>
+        <v>0.1712585484394483</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>55409</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>41689</v>
+        <v>41103</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>71038</v>
+        <v>70030</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1543975826601917</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1161646052259584</v>
+        <v>0.1145326544652793</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1979469710775227</v>
+        <v>0.195136388471768</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>51</v>
@@ -7742,19 +7742,19 @@
         <v>52152</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>40445</v>
+        <v>39794</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>65292</v>
+        <v>66133</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1837318931473225</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1424890003702121</v>
+        <v>0.1401959441043418</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.230025208179348</v>
+        <v>0.2329892145695119</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>100</v>
@@ -7763,19 +7763,19 @@
         <v>107561</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>89147</v>
+        <v>89180</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>129709</v>
+        <v>128949</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1673525463506587</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1387024977222647</v>
+        <v>0.1387533835225173</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.201811975063679</v>
+        <v>0.2006293865604297</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>24581</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>16479</v>
+        <v>15910</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>35914</v>
+        <v>35643</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.07496082727393941</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0502553173456243</v>
+        <v>0.04851815051214785</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1095240302211414</v>
+        <v>0.1086953401510962</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -7888,19 +7888,19 @@
         <v>14862</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8485</v>
+        <v>8714</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>23652</v>
+        <v>23584</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06265556746393165</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03577005404591039</v>
+        <v>0.03673595642821956</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09971014708267975</v>
+        <v>0.09942418139662147</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>37</v>
@@ -7909,19 +7909,19 @@
         <v>39443</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>28608</v>
+        <v>28972</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>53697</v>
+        <v>54797</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06979574237620868</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.05062278982091376</v>
+        <v>0.05126759342924132</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09501900596918923</v>
+        <v>0.09696566003098199</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>39930</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28793</v>
+        <v>28942</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>52790</v>
+        <v>53413</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1217685975162008</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08780591302435285</v>
+        <v>0.08826075471464022</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1609869283136957</v>
+        <v>0.1628871342549375</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>20</v>
@@ -7959,19 +7959,19 @@
         <v>20587</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13321</v>
+        <v>12882</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>30767</v>
+        <v>30705</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08678908542937809</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05615936361677674</v>
+        <v>0.05430540368346413</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1297060320043405</v>
+        <v>0.1294452167339083</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>58</v>
@@ -7980,19 +7980,19 @@
         <v>60516</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>47099</v>
+        <v>47144</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>78203</v>
+        <v>76138</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1070860835019336</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08334262738780615</v>
+        <v>0.08342370250555486</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1383839459672238</v>
+        <v>0.1347286760721498</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>49322</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>36858</v>
+        <v>36913</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>62305</v>
+        <v>62701</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1504117029196349</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.112401495113658</v>
+        <v>0.1125691004776624</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1900051268274103</v>
+        <v>0.1912128474082952</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>51</v>
@@ -8030,19 +8030,19 @@
         <v>52571</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>39580</v>
+        <v>40644</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>64773</v>
+        <v>66371</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2216264030459073</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1668563886156805</v>
+        <v>0.171343675197796</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2730662896790838</v>
+        <v>0.2798011481147218</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>99</v>
@@ -8051,19 +8051,19 @@
         <v>101893</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>85196</v>
+        <v>84350</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>122085</v>
+        <v>120576</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1803037960406171</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1507569978327523</v>
+        <v>0.1492598662800285</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2160345248173832</v>
+        <v>0.2133646638416705</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>98909</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>81557</v>
+        <v>83116</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>114470</v>
+        <v>114632</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3016328316059947</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2487140422511912</v>
+        <v>0.2534688149803885</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3490863263537203</v>
+        <v>0.349581095644546</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>57</v>
@@ -8101,19 +8101,19 @@
         <v>58905</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>44246</v>
+        <v>45923</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>71961</v>
+        <v>73611</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2483263210036056</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1865294689045293</v>
+        <v>0.1935980962119334</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3033685719838957</v>
+        <v>0.3103258054525985</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>153</v>
@@ -8122,19 +8122,19 @@
         <v>157814</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>136535</v>
+        <v>138438</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>178119</v>
+        <v>183963</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2792576313165057</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2416042389066956</v>
+        <v>0.2449718868665565</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3151890587891444</v>
+        <v>0.32552972133221</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>115172</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>98693</v>
+        <v>100001</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>134576</v>
+        <v>135390</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3512260406842302</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3009734950947185</v>
+        <v>0.3049610876920624</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4104024173947952</v>
+        <v>0.412883349317891</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>86</v>
@@ -8172,19 +8172,19 @@
         <v>90282</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>75518</v>
+        <v>76201</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>105384</v>
+        <v>105371</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3806026230571773</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.318363506010249</v>
+        <v>0.3212412370155585</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4442721003139493</v>
+        <v>0.4442169988325547</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>195</v>
@@ -8193,19 +8193,19 @@
         <v>205453</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>183920</v>
+        <v>182684</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>229328</v>
+        <v>228417</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3635567467647348</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3254531496199934</v>
+        <v>0.3232665121203306</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4058049101583463</v>
+        <v>0.4041928357710228</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>301781</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>272319</v>
+        <v>272458</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>333851</v>
+        <v>336157</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2130713319345024</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1922700440385988</v>
+        <v>0.1923677230523563</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2357142126312025</v>
+        <v>0.2373425811187002</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>157</v>
@@ -8318,19 +8318,19 @@
         <v>161140</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>138315</v>
+        <v>139667</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>187021</v>
+        <v>187569</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1561457724481153</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1340288326702015</v>
+        <v>0.1353387619038608</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1812255119073624</v>
+        <v>0.1817558287526383</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>437</v>
@@ -8339,19 +8339,19 @@
         <v>462920</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>425996</v>
+        <v>419870</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>505744</v>
+        <v>500889</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.189076849817932</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1739955700934498</v>
+        <v>0.171493049752512</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2065680676927383</v>
+        <v>0.2045851048203299</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>228692</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>201984</v>
+        <v>202606</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>258556</v>
+        <v>260166</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1614669270736227</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1426098005949523</v>
+        <v>0.1430491176038756</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1825528618963</v>
+        <v>0.183689660949166</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>150</v>
@@ -8389,19 +8389,19 @@
         <v>153318</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>132283</v>
+        <v>132741</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>177771</v>
+        <v>177602</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.14856622875863</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1281836729789456</v>
+        <v>0.1286271006021251</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1722614927547553</v>
+        <v>0.1720984118629241</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>362</v>
@@ -8410,19 +8410,19 @@
         <v>382009</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>347026</v>
+        <v>345430</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>419769</v>
+        <v>417614</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1560292014227332</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1417406924719918</v>
+        <v>0.1410886619554914</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1714519975065607</v>
+        <v>0.1705718321959747</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>305064</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>272317</v>
+        <v>274469</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>336541</v>
+        <v>339524</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2153891836347424</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1922683734452902</v>
+        <v>0.1937881706465502</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2376137362775353</v>
+        <v>0.2397199476293686</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>239</v>
@@ -8460,19 +8460,19 @@
         <v>244151</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>217795</v>
+        <v>218509</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>273092</v>
+        <v>271994</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2365843949763586</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2110451521156318</v>
+        <v>0.2117368135208568</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2646287992995301</v>
+        <v>0.2635642514520545</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>521</v>
@@ -8481,19 +8481,19 @@
         <v>549214</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>506585</v>
+        <v>505567</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>594010</v>
+        <v>592773</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2243230988053953</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2069113842534716</v>
+        <v>0.2064957268813473</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2426195319268839</v>
+        <v>0.2421143087698438</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>297545</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>265086</v>
+        <v>265453</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>329769</v>
+        <v>330778</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2100809350304291</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1871631174877019</v>
+        <v>0.187421947521269</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2328324710298353</v>
+        <v>0.2335443632742928</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>189</v>
@@ -8531,19 +8531,19 @@
         <v>193705</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>170547</v>
+        <v>169362</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>220224</v>
+        <v>220380</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.187702315106042</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1652616340663007</v>
+        <v>0.1641134828529511</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2133992097669931</v>
+        <v>0.2135498276065927</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>470</v>
@@ -8552,19 +8552,19 @@
         <v>491251</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>453090</v>
+        <v>448968</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>532000</v>
+        <v>534496</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2006482056832957</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1850615433118813</v>
+        <v>0.1833779944981331</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2172922014407004</v>
+        <v>0.2183116508225564</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>283256</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>253440</v>
+        <v>250096</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>317661</v>
+        <v>315585</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1999916223267034</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1789405992620638</v>
+        <v>0.1765794232540442</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2242833055492657</v>
+        <v>0.2228176902379368</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>273</v>
@@ -8602,19 +8602,19 @@
         <v>279668</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>252052</v>
+        <v>253613</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>311734</v>
+        <v>308298</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2710012887108542</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2442411271036911</v>
+        <v>0.2457531708157629</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3020732548418006</v>
+        <v>0.2987436636848552</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>535</v>
@@ -8623,19 +8623,19 @@
         <v>562924</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>522717</v>
+        <v>522080</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>605402</v>
+        <v>605335</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2299226442706437</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2135003340623783</v>
+        <v>0.2132403325279264</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2472726040570278</v>
+        <v>0.2472452370892161</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>6988</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2601</v>
+        <v>2393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15825</v>
+        <v>15731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.171112810167436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06367471754017229</v>
+        <v>0.05858634801400677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3874707058042916</v>
+        <v>0.3851821745217952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>6988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2724</v>
+        <v>2273</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16955</v>
+        <v>17515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09497484992289054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03702292593112662</v>
+        <v>0.03089172688117068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2304292251929693</v>
+        <v>0.2380306465740357</v>
       </c>
     </row>
     <row r="5">
@@ -9034,19 +9034,19 @@
         <v>13407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7874</v>
+        <v>7341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20292</v>
+        <v>20190</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3282656790699314</v>
+        <v>0.3282656790699313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1928042014551054</v>
+        <v>0.1797363870902068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4968647522102869</v>
+        <v>0.4943641283770705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -9055,19 +9055,19 @@
         <v>9007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5596</v>
+        <v>5332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13432</v>
+        <v>13631</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.275101886405637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1709118412266627</v>
+        <v>0.1628469695617896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.410254079818658</v>
+        <v>0.4163327528498139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -9076,19 +9076,19 @@
         <v>22414</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15463</v>
+        <v>15247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30833</v>
+        <v>30607</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3046100408487923</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2101433648485617</v>
+        <v>0.2072177630148784</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4190318343316751</v>
+        <v>0.4159559387154598</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>17898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11527</v>
+        <v>11685</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24219</v>
+        <v>24766</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4382422928418706</v>
+        <v>0.4382422928418705</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2822393446870252</v>
+        <v>0.286097502388396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5929990853481253</v>
+        <v>0.6063963871676314</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -9126,19 +9126,19 @@
         <v>18573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14017</v>
+        <v>13841</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22483</v>
+        <v>23025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5672699034974672</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4281276571234607</v>
+        <v>0.4227340018425186</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6866919497062679</v>
+        <v>0.7032463586394291</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -9147,19 +9147,19 @@
         <v>36471</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27723</v>
+        <v>28972</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44639</v>
+        <v>44335</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4956541200506675</v>
+        <v>0.4956541200506676</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3767573159442813</v>
+        <v>0.3937439545822324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6066500015490234</v>
+        <v>0.6025194505286007</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>2548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7145</v>
+        <v>6584</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06237921792076212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01697470637931113</v>
+        <v>0.01795374471105972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1749576541351698</v>
+        <v>0.1612221319103489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -9197,19 +9197,19 @@
         <v>5161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2489</v>
+        <v>2552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9128</v>
+        <v>8714</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.157628210096896</v>
+        <v>0.1576282100968959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07603137842024865</v>
+        <v>0.07795514005339046</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2788034485752671</v>
+        <v>0.2661492155798041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -9218,19 +9218,19 @@
         <v>7709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4113</v>
+        <v>4309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13589</v>
+        <v>12666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1047609891776497</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05590292977912898</v>
+        <v>0.05855401622107113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.184681416899712</v>
+        <v>0.1721286066176665</v>
       </c>
     </row>
     <row r="8">
@@ -9369,19 +9369,19 @@
         <v>19278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11060</v>
+        <v>11628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27774</v>
+        <v>27746</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3722300985783687</v>
+        <v>0.3722300985783686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.213559813277303</v>
+        <v>0.2245166721741582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5362629802441526</v>
+        <v>0.5357330721100774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -9390,19 +9390,19 @@
         <v>14656</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9234</v>
+        <v>9752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20764</v>
+        <v>20355</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3404774276678975</v>
+        <v>0.3404774276678976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2145324384525318</v>
+        <v>0.2265506619391178</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4823847798548573</v>
+        <v>0.4728977855965327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -9411,19 +9411,19 @@
         <v>33934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24752</v>
+        <v>24649</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45712</v>
+        <v>44521</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3578180864648281</v>
+        <v>0.3578180864648282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2610050139490915</v>
+        <v>0.2599104798092331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4820132424265519</v>
+        <v>0.4694614191934509</v>
       </c>
     </row>
     <row r="11">
@@ -9440,19 +9440,19 @@
         <v>15212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8304</v>
+        <v>7351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24397</v>
+        <v>25108</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.293719910866259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1603343438680831</v>
+        <v>0.1419444601952645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4710711957778558</v>
+        <v>0.484800015473599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -9461,19 +9461,19 @@
         <v>11293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6303</v>
+        <v>6867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16862</v>
+        <v>17694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2623704921500988</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1464270776444939</v>
+        <v>0.1595379155038825</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3917371524731273</v>
+        <v>0.4110734610133736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -9482,19 +9482,19 @@
         <v>26506</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17102</v>
+        <v>17192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37942</v>
+        <v>36990</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2794909282536259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1803379316702254</v>
+        <v>0.1812884091388685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4000893374514349</v>
+        <v>0.3900473004710505</v>
       </c>
     </row>
     <row r="12">
@@ -9511,19 +9511,19 @@
         <v>13673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6960</v>
+        <v>6590</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21852</v>
+        <v>23499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2640030123234738</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1343940621687545</v>
+        <v>0.1272342253245884</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4219182549456525</v>
+        <v>0.4537292121725581</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -9532,19 +9532,19 @@
         <v>5008</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10190</v>
+        <v>10513</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1163419071405767</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04742878647000028</v>
+        <v>0.04737673808808261</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2367330772164039</v>
+        <v>0.2442453512130738</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -9553,19 +9553,19 @@
         <v>18681</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10924</v>
+        <v>10673</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28350</v>
+        <v>28357</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1969820791051314</v>
+        <v>0.1969820791051315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1151930211269394</v>
+        <v>0.1125464449900176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2989356843231724</v>
+        <v>0.2990138129499434</v>
       </c>
     </row>
     <row r="13">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5841</v>
+        <v>5689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02121687637187126</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1127848948799165</v>
+        <v>0.1098439493804144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -9603,19 +9603,19 @@
         <v>3034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>934</v>
+        <v>750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7136</v>
+        <v>7255</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0704775765970506</v>
+        <v>0.07047757659705059</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02170796696965313</v>
+        <v>0.01742034344003458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1657762974783117</v>
+        <v>0.1685503214487889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -9624,19 +9624,19 @@
         <v>4132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10053</v>
+        <v>9843</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04357549339557021</v>
+        <v>0.04357549339557022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01605944945588726</v>
+        <v>0.01607925380254555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1060080373902827</v>
+        <v>0.1037887425747731</v>
       </c>
     </row>
     <row r="14">
@@ -9656,16 +9656,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7872</v>
+        <v>8323</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04883010186002727</v>
+        <v>0.04883010186002728</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1520029798809548</v>
+        <v>0.1606962601049126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -9674,19 +9674,19 @@
         <v>9054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5003</v>
+        <v>4946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14628</v>
+        <v>14389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2103325964443764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1162216794833855</v>
+        <v>0.1149080001927034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3398339657037049</v>
+        <v>0.3342836814508448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -9695,19 +9695,19 @@
         <v>11583</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6491</v>
+        <v>6698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20037</v>
+        <v>19669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1221334127808442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06845021378791265</v>
+        <v>0.07062991603750751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2112795355595635</v>
+        <v>0.2073971760682435</v>
       </c>
     </row>
     <row r="15">
@@ -9799,19 +9799,19 @@
         <v>13733</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8425</v>
+        <v>8377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18963</v>
+        <v>19121</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4767563924554044</v>
+        <v>0.4767563924554042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2924865054721504</v>
+        <v>0.290814025497788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6583383358598672</v>
+        <v>0.6637915235364481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -9820,19 +9820,19 @@
         <v>9883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5913</v>
+        <v>5533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14656</v>
+        <v>14615</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3407110682716824</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2038506445812746</v>
+        <v>0.1907463187210929</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5052524551721521</v>
+        <v>0.5038501360382353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -9841,19 +9841,19 @@
         <v>23616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16870</v>
+        <v>16517</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30530</v>
+        <v>30181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4084959037077417</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2918001150280107</v>
+        <v>0.2856958684147722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5280869758596418</v>
+        <v>0.5220606651068551</v>
       </c>
     </row>
     <row r="17">
@@ -9870,19 +9870,19 @@
         <v>8688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4609</v>
+        <v>4400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14334</v>
+        <v>15066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3015975935846165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1600032482408654</v>
+        <v>0.1527582041430862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4976094739425369</v>
+        <v>0.5230280828466527</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -9891,19 +9891,19 @@
         <v>7261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3536</v>
+        <v>3631</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12087</v>
+        <v>12530</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2503143489761878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1218959580786479</v>
+        <v>0.1251616167213922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.416699015896011</v>
+        <v>0.4319520926054666</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -9912,19 +9912,19 @@
         <v>15948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10396</v>
+        <v>9858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23484</v>
+        <v>22991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2758663208448796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1798267533436151</v>
+        <v>0.1705150354125895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4062048524151886</v>
+        <v>0.3976790303325273</v>
       </c>
     </row>
     <row r="18">
@@ -9941,19 +9941,19 @@
         <v>3120</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7922</v>
+        <v>8354</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1083221725024111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03027207184210524</v>
+        <v>0.03011700924270641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2750285243200016</v>
+        <v>0.2900071528166778</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -9962,19 +9962,19 @@
         <v>5010</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2358</v>
+        <v>2347</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8672</v>
+        <v>9069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.17270556477264</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08129080457669724</v>
+        <v>0.0809075267325933</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2989635183290364</v>
+        <v>0.3126655523820952</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -9983,19 +9983,19 @@
         <v>8130</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4370</v>
+        <v>4311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13515</v>
+        <v>14736</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1406264200020409</v>
+        <v>0.1406264200020408</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07558993967883408</v>
+        <v>0.07456678173414603</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2337719961451157</v>
+        <v>0.2548997911847218</v>
       </c>
     </row>
     <row r="19">
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7620</v>
+        <v>8004</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08329759204932523</v>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2645490150969805</v>
+        <v>0.2778682153996442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -10033,19 +10033,19 @@
         <v>3858</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1364</v>
+        <v>1386</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7658</v>
+        <v>7715</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1330013117763986</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04703977710808127</v>
+        <v>0.04779364512195577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2640198745078638</v>
+        <v>0.2659565285233698</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -10054,19 +10054,19 @@
         <v>6257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2867</v>
+        <v>2889</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11673</v>
+        <v>12268</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1082363411133142</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04960018035700368</v>
+        <v>0.04997629809147053</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2019147341669503</v>
+        <v>0.2122011485172548</v>
       </c>
     </row>
     <row r="20">
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4395</v>
+        <v>4573</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03002624940824288</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.152568665827652</v>
+        <v>0.1587467216601796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -10104,19 +10104,19 @@
         <v>2995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8170</v>
+        <v>8466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1032677062030913</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0217455033381734</v>
+        <v>0.02098392671398068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2816536047036886</v>
+        <v>0.2918695191270092</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -10125,19 +10125,19 @@
         <v>3860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>903</v>
+        <v>1228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10617</v>
+        <v>10456</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06677501433202385</v>
+        <v>0.06677501433202383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01562420673829038</v>
+        <v>0.02124269562865405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1836535267048992</v>
+        <v>0.1808604137748789</v>
       </c>
     </row>
     <row r="21">
@@ -10229,19 +10229,19 @@
         <v>31631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20529</v>
+        <v>20606</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45443</v>
+        <v>43827</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4513364300459079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2929260855240909</v>
+        <v>0.2940186063018216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6484135664797464</v>
+        <v>0.6253589366958565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -10250,19 +10250,19 @@
         <v>16423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10820</v>
+        <v>9876</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24315</v>
+        <v>23986</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3603039742077103</v>
+        <v>0.3603039742077101</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2373865902242218</v>
+        <v>0.2166661396589622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5334596746062171</v>
+        <v>0.5262382594102367</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -10271,19 +10271,19 @@
         <v>48054</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34103</v>
+        <v>34374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62770</v>
+        <v>61923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4154627251088283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2948470352467882</v>
+        <v>0.2971926352612148</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5426911134329294</v>
+        <v>0.5353656106300644</v>
       </c>
     </row>
     <row r="23">
@@ -10300,19 +10300,19 @@
         <v>6066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1920</v>
+        <v>1944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13678</v>
+        <v>13349</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08655191412983991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02739594803831384</v>
+        <v>0.02774217354226066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1951704183398983</v>
+        <v>0.1904787465389165</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -10321,19 +10321,19 @@
         <v>6392</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2840</v>
+        <v>2997</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11508</v>
+        <v>12117</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1402370070215883</v>
+        <v>0.1402370070215882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06231173452448889</v>
+        <v>0.06576080724507756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2524685531296632</v>
+        <v>0.2658504301685752</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -10342,19 +10342,19 @@
         <v>12458</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6967</v>
+        <v>6593</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21550</v>
+        <v>20956</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1077079201299569</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0602333522829525</v>
+        <v>0.05700532047105455</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1863166312683152</v>
+        <v>0.1811823595986243</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>6176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1703</v>
+        <v>1799</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16494</v>
+        <v>16140</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08812486753792931</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02429282944732723</v>
+        <v>0.02566729907331844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2353560896505274</v>
+        <v>0.2302952959101343</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -10392,19 +10392,19 @@
         <v>5490</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1819</v>
+        <v>1770</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11732</v>
+        <v>11731</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1204495306827179</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03990374605783469</v>
+        <v>0.03882684053203474</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2573899122477276</v>
+        <v>0.2573820056250765</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -10413,19 +10413,19 @@
         <v>11666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5657</v>
+        <v>5502</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22829</v>
+        <v>22860</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1008632410901901</v>
+        <v>0.10086324109019</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04890821854676768</v>
+        <v>0.04756785807628408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1973745193151922</v>
+        <v>0.1976377972660698</v>
       </c>
     </row>
     <row r="25">
@@ -10455,19 +10455,19 @@
         <v>5161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1546</v>
+        <v>1378</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15882</v>
+        <v>15488</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1132219621244678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03392569854174728</v>
+        <v>0.03023919737219417</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.348433655678728</v>
+        <v>0.3398018352921155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -10476,19 +10476,19 @@
         <v>5161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18332</v>
+        <v>18384</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04461805654095145</v>
+        <v>0.04461805654095143</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01148268333382012</v>
+        <v>0.0114890777188914</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1584935134103589</v>
+        <v>0.1589410334158733</v>
       </c>
     </row>
     <row r="26">
@@ -10505,19 +10505,19 @@
         <v>26210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14352</v>
+        <v>15214</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39707</v>
+        <v>39627</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3739867882863227</v>
+        <v>0.3739867882863228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2047807800472967</v>
+        <v>0.2170894392838789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.566567977702804</v>
+        <v>0.5654333291605044</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -10526,19 +10526,19 @@
         <v>12115</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6088</v>
+        <v>6678</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19290</v>
+        <v>19489</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2657875259635158</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1335703829642085</v>
+        <v>0.1465200945552612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4232053842183446</v>
+        <v>0.4275767247320877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -10547,19 +10547,19 @@
         <v>38325</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26334</v>
+        <v>26364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53573</v>
+        <v>53330</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3313480571300734</v>
+        <v>0.3313480571300733</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2276801371848026</v>
+        <v>0.2279389400052231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4631736568567745</v>
+        <v>0.4610808533432315</v>
       </c>
     </row>
     <row r="27">
@@ -10651,19 +10651,19 @@
         <v>2243</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5842</v>
+        <v>6221</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1011819215573777</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03114357253034969</v>
+        <v>0.03235654851271368</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2634798860976085</v>
+        <v>0.2805851798934131</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10675,16 +10675,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1973</v>
+        <v>2027</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01895276640438728</v>
+        <v>0.01895276640438729</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08479049230592396</v>
+        <v>0.08713475525695806</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -10693,19 +10693,19 @@
         <v>2684</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>729</v>
+        <v>770</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6208</v>
+        <v>6399</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05907830949374832</v>
+        <v>0.05907830949374831</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01603814416712733</v>
+        <v>0.01694312359547338</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.13663555300323</v>
+        <v>0.140841964975348</v>
       </c>
     </row>
     <row r="29">
@@ -10722,19 +10722,19 @@
         <v>2988</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6461</v>
+        <v>6843</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1347617308408579</v>
+        <v>0.1347617308408578</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03254308331878852</v>
+        <v>0.03337781320149553</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2914128470646097</v>
+        <v>0.3086113698988687</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -10743,19 +10743,19 @@
         <v>5757</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2793</v>
+        <v>2923</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9621</v>
+        <v>9573</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2474604685134046</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.120031640656728</v>
+        <v>0.1256200010283012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4135508925128439</v>
+        <v>0.4114926551096125</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -10764,19 +10764,19 @@
         <v>8745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5212</v>
+        <v>4869</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13804</v>
+        <v>13664</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1924666157104319</v>
+        <v>0.1924666157104318</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.114704598390663</v>
+        <v>0.1071691079114254</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3038053501021508</v>
+        <v>0.3007319212904436</v>
       </c>
     </row>
     <row r="30">
@@ -10793,19 +10793,19 @@
         <v>13461</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9096</v>
+        <v>9217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17614</v>
+        <v>17534</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6071030391323939</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4102308740842727</v>
+        <v>0.4157218600042938</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7944421527899287</v>
+        <v>0.7908058435026123</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -10814,19 +10814,19 @@
         <v>15148</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11335</v>
+        <v>11023</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18529</v>
+        <v>18471</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6511159216245849</v>
+        <v>0.651115921624585</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4872299151005856</v>
+        <v>0.4738215261346866</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.796425410569255</v>
+        <v>0.793956915333517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -10835,19 +10835,19 @@
         <v>28609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23073</v>
+        <v>22622</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33694</v>
+        <v>33983</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6296388578065073</v>
+        <v>0.6296388578065072</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5077910693326627</v>
+        <v>0.4978722738730778</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7415498742390954</v>
+        <v>0.7479180020126318</v>
       </c>
     </row>
     <row r="31">
@@ -10864,19 +10864,19 @@
         <v>1972</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5510</v>
+        <v>5446</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08894981191487453</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02536885893846956</v>
+        <v>0.0261093746772852</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2485040469482532</v>
+        <v>0.2456223783260525</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -10888,16 +10888,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3589</v>
+        <v>4368</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05032319962146927</v>
+        <v>0.05032319962146928</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1542572350321504</v>
+        <v>0.1877652156168358</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -10906,19 +10906,19 @@
         <v>3143</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6755</v>
+        <v>7599</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.06917191323273529</v>
+        <v>0.06917191323273526</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02469684885070161</v>
+        <v>0.0260305719254714</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1486614011633322</v>
+        <v>0.1672398778842606</v>
       </c>
     </row>
     <row r="32">
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4514</v>
+        <v>4813</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06800349655449581</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2035904631806446</v>
+        <v>0.2170742857964881</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -10959,16 +10959,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3759</v>
+        <v>3300</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.03214764383615384</v>
+        <v>0.03214764383615385</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1615685203045829</v>
+        <v>0.1418318549938949</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -10977,19 +10977,19 @@
         <v>2256</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5360</v>
+        <v>6367</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04964430375657736</v>
+        <v>0.04964430375657735</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01515215945734415</v>
+        <v>0.01520380613349009</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1179645770912687</v>
+        <v>0.1401259019955293</v>
       </c>
     </row>
     <row r="33">
@@ -11081,19 +11081,19 @@
         <v>5524</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2473</v>
+        <v>2366</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10228</v>
+        <v>10465</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1650966934084898</v>
+        <v>0.1650966934084899</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07392088047297461</v>
+        <v>0.07072435048568597</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3056694490319818</v>
+        <v>0.3127494464112624</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -11102,19 +11102,19 @@
         <v>1660</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4680</v>
+        <v>4126</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08376909831419424</v>
+        <v>0.08376909831419423</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02453860997156773</v>
+        <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2362496028641344</v>
+        <v>0.2082443806639128</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -11123,19 +11123,19 @@
         <v>7184</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3659</v>
+        <v>3646</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13397</v>
+        <v>13258</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1348516860551358</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06869343449138325</v>
+        <v>0.06844357318923128</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2514812952742003</v>
+        <v>0.2488768130635012</v>
       </c>
     </row>
     <row r="35">
@@ -11155,16 +11155,16 @@
         <v>770</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6948</v>
+        <v>7262</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09194702344237687</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0230161469721272</v>
+        <v>0.02300252575353214</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.207662244510569</v>
+        <v>0.2170342620949588</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -11186,19 +11186,19 @@
         <v>3077</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7145</v>
+        <v>7365</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05775274538817719</v>
+        <v>0.05775274538817721</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01473981302843552</v>
+        <v>0.01486154370129046</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1341176807836723</v>
+        <v>0.138248331243729</v>
       </c>
     </row>
     <row r="36">
@@ -11215,19 +11215,19 @@
         <v>8590</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4125</v>
+        <v>4581</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13305</v>
+        <v>13597</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2567211742277822</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1232755330641129</v>
+        <v>0.1369227707171095</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3976442730854312</v>
+        <v>0.4063522704837756</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -11236,19 +11236,19 @@
         <v>2908</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6780</v>
+        <v>6384</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1467738968559226</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04049216784746375</v>
+        <v>0.03982741341335114</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3422416169685311</v>
+        <v>0.322269421701891</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>14</v>
@@ -11257,19 +11257,19 @@
         <v>11498</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6713</v>
+        <v>6924</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17964</v>
+        <v>18182</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2158327622596481</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1260074574068059</v>
+        <v>0.129967970728907</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3372166746776481</v>
+        <v>0.3413182646170336</v>
       </c>
     </row>
     <row r="37">
@@ -11286,19 +11286,19 @@
         <v>7101</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3291</v>
+        <v>3457</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12657</v>
+        <v>12403</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2122217857197639</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09835978132507303</v>
+        <v>0.1033037494974074</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3782809140737974</v>
+        <v>0.3706937896926989</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -11307,19 +11307,19 @@
         <v>4447</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1946</v>
+        <v>1614</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8266</v>
+        <v>8164</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2244857077726447</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09824928915652886</v>
+        <v>0.08148652787814539</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4172375216235134</v>
+        <v>0.4121105726284583</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -11328,19 +11328,19 @@
         <v>11548</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6522</v>
+        <v>6510</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18244</v>
+        <v>17716</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.216782628964179</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.122423028905513</v>
+        <v>0.1222122846230576</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.342466905853192</v>
+        <v>0.3325728465083272</v>
       </c>
     </row>
     <row r="38">
@@ -11357,19 +11357,19 @@
         <v>9168</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4726</v>
+        <v>4738</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14676</v>
+        <v>14770</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2740133232015873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1412534608941304</v>
+        <v>0.1416148764702539</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4386245194344552</v>
+        <v>0.4414201538134215</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -11378,19 +11378,19 @@
         <v>10796</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6771</v>
+        <v>7137</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14293</v>
+        <v>14458</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.5449712970572383</v>
+        <v>0.5449712970572382</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3417894771696948</v>
+        <v>0.3602706980136297</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.721447438375118</v>
+        <v>0.7297896010681447</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>24</v>
@@ -11399,19 +11399,19 @@
         <v>19965</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>14083</v>
+        <v>13503</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>27150</v>
+        <v>26464</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.37478017733286</v>
+        <v>0.3747801773328599</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2643617269970568</v>
+        <v>0.2534732451229745</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5096508906568851</v>
+        <v>0.4967802340536467</v>
       </c>
     </row>
     <row r="39">
@@ -11503,19 +11503,19 @@
         <v>36497</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26291</v>
+        <v>26952</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>47522</v>
+        <v>47646</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.4044917117699413</v>
+        <v>0.404491711769941</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.291373538041893</v>
+        <v>0.2987077789689477</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5266758275981523</v>
+        <v>0.528047562807707</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -11524,19 +11524,19 @@
         <v>22824</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>15976</v>
+        <v>15521</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>31923</v>
+        <v>30984</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.2448476626353736</v>
+        <v>0.2448476626353737</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1713894842708905</v>
+        <v>0.1665108807417384</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3424604870446454</v>
+        <v>0.3323935900590479</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>55</v>
@@ -11545,19 +11545,19 @@
         <v>59321</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>46670</v>
+        <v>45958</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>72627</v>
+        <v>73778</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.323370254456479</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2544075017968121</v>
+        <v>0.2505283651888076</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3959058658612897</v>
+        <v>0.4021819458689937</v>
       </c>
     </row>
     <row r="41">
@@ -11574,19 +11574,19 @@
         <v>10833</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5635</v>
+        <v>5792</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18814</v>
+        <v>19813</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1200632065646118</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06244982377790915</v>
+        <v>0.06419603443516422</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2085062939689139</v>
+        <v>0.2195883883870145</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -11595,19 +11595,19 @@
         <v>9617</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5454</v>
+        <v>5595</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>15216</v>
+        <v>15560</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1031684183430229</v>
+        <v>0.103168418343023</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05851232487813385</v>
+        <v>0.06002499929069831</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1632313482635257</v>
+        <v>0.166923518726519</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -11616,19 +11616,19 @@
         <v>20450</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13338</v>
+        <v>13677</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30303</v>
+        <v>29837</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1114782962659363</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07270782136706395</v>
+        <v>0.07455700833590656</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1651879842729958</v>
+        <v>0.1626481805122721</v>
       </c>
     </row>
     <row r="42">
@@ -11645,19 +11645,19 @@
         <v>14641</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8660</v>
+        <v>8181</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24795</v>
+        <v>24721</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1622626835901337</v>
+        <v>0.1622626835901336</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0959805046693155</v>
+        <v>0.09066380990372452</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.274798197285895</v>
+        <v>0.2739815986438369</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -11666,19 +11666,19 @@
         <v>21623</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14489</v>
+        <v>14830</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30386</v>
+        <v>30172</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2319639702579377</v>
+        <v>0.2319639702579378</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.155437633315414</v>
+        <v>0.1590951483620042</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.325972052790947</v>
+        <v>0.3236733183945563</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>37</v>
@@ -11687,19 +11687,19 @@
         <v>36264</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>26805</v>
+        <v>26543</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>48269</v>
+        <v>48726</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1976806649165127</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1461221582340176</v>
+        <v>0.1446923855568152</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2631261987185182</v>
+        <v>0.2656145108183247</v>
       </c>
     </row>
     <row r="43">
@@ -11716,19 +11716,19 @@
         <v>9044</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4328</v>
+        <v>3401</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>18152</v>
+        <v>17994</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1002350091104448</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04796622200298797</v>
+        <v>0.03769756642546131</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2011789781498561</v>
+        <v>0.1994289292867936</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>15</v>
@@ -11737,19 +11737,19 @@
         <v>11982</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7237</v>
+        <v>6999</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>18968</v>
+        <v>18586</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1285444663593384</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07763408700578185</v>
+        <v>0.07508359366569402</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2034857240965074</v>
+        <v>0.1993870973610224</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>22</v>
@@ -11758,19 +11758,19 @@
         <v>21026</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>13309</v>
+        <v>13519</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>31308</v>
+        <v>32032</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1146201643369176</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0725490069793769</v>
+        <v>0.07369377637914609</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1706670653973981</v>
+        <v>0.1746133368319364</v>
       </c>
     </row>
     <row r="44">
@@ -11787,19 +11787,19 @@
         <v>19214</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10952</v>
+        <v>11183</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28709</v>
+        <v>30217</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2129473889648686</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1213822801761718</v>
+        <v>0.1239354049579946</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3181798484103958</v>
+        <v>0.3348886858748267</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>35</v>
@@ -11808,19 +11808,19 @@
         <v>27170</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>19924</v>
+        <v>19674</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>35638</v>
+        <v>35475</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.2914754824043272</v>
+        <v>0.2914754824043273</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2137356723910844</v>
+        <v>0.2110542917182904</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3823209668750709</v>
+        <v>0.3805694877716929</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>50</v>
@@ -11829,19 +11829,19 @@
         <v>46384</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>35884</v>
+        <v>36055</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>59785</v>
+        <v>59228</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2528506200241543</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1956116032698543</v>
+        <v>0.1965450317817029</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3259021730283983</v>
+        <v>0.3228660968835103</v>
       </c>
     </row>
     <row r="45">
@@ -11933,19 +11933,19 @@
         <v>39579</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>28563</v>
+        <v>29036</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>53024</v>
+        <v>51992</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.2891218972506988</v>
+        <v>0.2891218972506989</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2086509641367932</v>
+        <v>0.2121060859229381</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3873302036380345</v>
+        <v>0.3797919097447697</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>24</v>
@@ -11954,19 +11954,19 @@
         <v>20420</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>14129</v>
+        <v>14168</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>28770</v>
+        <v>27794</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2024963694464325</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1401159452568006</v>
+        <v>0.140497629043943</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2853076835190729</v>
+        <v>0.2756244985876865</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>54</v>
@@ -11975,19 +11975,19 @@
         <v>59999</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>46158</v>
+        <v>47062</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>77631</v>
+        <v>75228</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2523778962851458</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1941569665482255</v>
+        <v>0.1979607800736408</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3265463536344982</v>
+        <v>0.3164371141761622</v>
       </c>
     </row>
     <row r="47">
@@ -12004,19 +12004,19 @@
         <v>23960</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>15607</v>
+        <v>15346</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>34042</v>
+        <v>33908</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1750228433985759</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1140040299081506</v>
+        <v>0.1121038108166552</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2486726560306335</v>
+        <v>0.2476918853724138</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -12025,19 +12025,19 @@
         <v>12769</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7563</v>
+        <v>7790</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>20114</v>
+        <v>20009</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1266281108425616</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07500097381543622</v>
+        <v>0.07725146370179095</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1994692615130532</v>
+        <v>0.1984239428520604</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>35</v>
@@ -12046,19 +12046,19 @@
         <v>36729</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>26863</v>
+        <v>26641</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>50783</v>
+        <v>48363</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1544952212894925</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1129936432255227</v>
+        <v>0.1120631580975367</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.213612843752115</v>
+        <v>0.2034312382172382</v>
       </c>
     </row>
     <row r="48">
@@ -12075,19 +12075,19 @@
         <v>29462</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>20214</v>
+        <v>19277</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>41850</v>
+        <v>40632</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2152155575993284</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.147657951749702</v>
+        <v>0.1408142073478863</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3057101756153069</v>
+        <v>0.2968106124512466</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>33</v>
@@ -12096,19 +12096,19 @@
         <v>27800</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>20987</v>
+        <v>19943</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>37094</v>
+        <v>36974</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2756857997407256</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2081183129659238</v>
+        <v>0.1977698619721236</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3678540636991843</v>
+        <v>0.3666612865014672</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>58</v>
@@ -12117,19 +12117,19 @@
         <v>57262</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>44330</v>
+        <v>44370</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>71096</v>
+        <v>70351</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2408652556958439</v>
+        <v>0.2408652556958438</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1864669883239197</v>
+        <v>0.186637103148592</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2990574802498712</v>
+        <v>0.2959202279800327</v>
       </c>
     </row>
     <row r="49">
@@ -12146,19 +12146,19 @@
         <v>34815</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>24935</v>
+        <v>24064</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>46193</v>
+        <v>46845</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.254316962813451</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1821447117374298</v>
+        <v>0.1757821962495925</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3374352511629455</v>
+        <v>0.3421968036076199</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>33</v>
@@ -12167,19 +12167,19 @@
         <v>26624</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>19817</v>
+        <v>19551</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>35367</v>
+        <v>34644</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2640256978389846</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1965239011711531</v>
+        <v>0.1938853467353</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.350726512811403</v>
+        <v>0.3435535691135275</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>62</v>
@@ -12188,19 +12188,19 @@
         <v>61439</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>48274</v>
+        <v>48936</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>77136</v>
+        <v>75519</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.258435122646873</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.203059094074809</v>
+        <v>0.2058424279168223</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3244639269537305</v>
+        <v>0.3176606021886796</v>
       </c>
     </row>
     <row r="50">
@@ -12217,19 +12217,19 @@
         <v>9079</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3603</v>
+        <v>4240</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>19377</v>
+        <v>18838</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.0663227389379457</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02631601955500548</v>
+        <v>0.03097287448505044</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1415446554298341</v>
+        <v>0.1376058019737866</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>15</v>
@@ -12238,19 +12238,19 @@
         <v>13227</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>8195</v>
+        <v>7625</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>20885</v>
+        <v>20587</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1311640221312957</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08126593407526335</v>
+        <v>0.07561194303319867</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2071128825628754</v>
+        <v>0.204151407665869</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -12259,19 +12259,19 @@
         <v>22306</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>14073</v>
+        <v>14784</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>33355</v>
+        <v>33072</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.09382650408264494</v>
+        <v>0.09382650408264491</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.05919483730278129</v>
+        <v>0.06218687006361408</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1403044168427374</v>
+        <v>0.1391149637938843</v>
       </c>
     </row>
     <row r="51">
@@ -12363,19 +12363,19 @@
         <v>155475</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>131831</v>
+        <v>131042</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>181857</v>
+        <v>180711</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.327814258599174</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2779610842317166</v>
+        <v>0.276297487221575</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3834407314771103</v>
+        <v>0.3810243943087696</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>105</v>
@@ -12384,19 +12384,19 @@
         <v>86305</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>70379</v>
+        <v>72972</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>102119</v>
+        <v>102951</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2227208545078261</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.181622138531074</v>
+        <v>0.1883134693369639</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2635311350867613</v>
+        <v>0.2656782103536351</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>221</v>
@@ -12405,19 +12405,19 @@
         <v>241780</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>213762</v>
+        <v>213249</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>269124</v>
+        <v>271192</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.280558468210394</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2480467630293742</v>
+        <v>0.2474515601764242</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3122878505309098</v>
+        <v>0.3146876663926166</v>
       </c>
     </row>
     <row r="53">
@@ -12434,19 +12434,19 @@
         <v>84230</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>65644</v>
+        <v>67890</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>105456</v>
+        <v>103546</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1775957631401153</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1384078763001071</v>
+        <v>0.1431435982887901</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2223511082639393</v>
+        <v>0.2183237889505622</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>84</v>
@@ -12455,19 +12455,19 @@
         <v>62097</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>50996</v>
+        <v>50157</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>77178</v>
+        <v>74970</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.160247896975831</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1316000666142034</v>
+        <v>0.1294364623871499</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1991665750190616</v>
+        <v>0.1934684128495181</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>158</v>
@@ -12476,19 +12476,19 @@
         <v>146326</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>124838</v>
+        <v>125294</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>168978</v>
+        <v>169061</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1697952057765013</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1448605009211649</v>
+        <v>0.1453896432954448</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1960802512806595</v>
+        <v>0.1961763366733309</v>
       </c>
     </row>
     <row r="54">
@@ -12505,19 +12505,19 @@
         <v>107021</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>88677</v>
+        <v>87241</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>130049</v>
+        <v>127477</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2256506013305203</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1869739361878085</v>
+        <v>0.1839447360938448</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2742050738683875</v>
+        <v>0.2687807956772575</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>137</v>
@@ -12526,19 +12526,19 @@
         <v>101559</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>86821</v>
+        <v>87327</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>118440</v>
+        <v>119260</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2620856463035573</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2240517707368888</v>
+        <v>0.2253566909883457</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3056486496220949</v>
+        <v>0.3077651351106574</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>234</v>
@@ -12547,19 +12547,19 @@
         <v>208580</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>182439</v>
+        <v>182747</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>233798</v>
+        <v>236147</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2420338069459273</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.211700154394788</v>
+        <v>0.2120567418890412</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2712962120445314</v>
+        <v>0.2740216154050789</v>
       </c>
     </row>
     <row r="55">
@@ -12576,19 +12576,19 @@
         <v>58978</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>45323</v>
+        <v>44815</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>75747</v>
+        <v>74685</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1243532511226131</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.09556237821467453</v>
+        <v>0.09449039436038983</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.15971032966332</v>
+        <v>0.1574702621523829</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>79</v>
@@ -12597,19 +12597,19 @@
         <v>61438</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>48919</v>
+        <v>49782</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>76207</v>
+        <v>76133</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1585480553916577</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1262425482055018</v>
+        <v>0.1284681840750585</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1966608572168211</v>
+        <v>0.1964701559379064</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>132</v>
@@ -12618,19 +12618,19 @@
         <v>120416</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>101284</v>
+        <v>101313</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>144114</v>
+        <v>143032</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1397291209680582</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1175287211105248</v>
+        <v>0.1175618706907827</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1672277186164399</v>
+        <v>0.1659727211279155</v>
       </c>
     </row>
     <row r="56">
@@ -12647,19 +12647,19 @@
         <v>68574</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>51990</v>
+        <v>50648</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>91232</v>
+        <v>90236</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1445861258075774</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1096199645737169</v>
+        <v>0.106789629787813</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.192359810265061</v>
+        <v>0.1902592031619156</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>92</v>
@@ -12668,19 +12668,19 @@
         <v>76105</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>61951</v>
+        <v>62336</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>92757</v>
+        <v>91851</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.196397546821128</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1598719823544182</v>
+        <v>0.1608642455092699</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2393713191266978</v>
+        <v>0.2370312365259358</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>140</v>
@@ -12689,19 +12689,19 @@
         <v>144679</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>120995</v>
+        <v>123504</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>169836</v>
+        <v>170500</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1678833980991193</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1404007097431938</v>
+        <v>0.1433128479028395</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1970752782401221</v>
+        <v>0.197846178295175</v>
       </c>
     </row>
     <row r="57">
